--- a/Output/AllModelsFinal.xlsx
+++ b/Output/AllModelsFinal.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="411">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -56,7 +56,7 @@
     <t xml:space="preserve">Intercept</t>
   </si>
   <si>
-    <t xml:space="preserve">47.95*</t>
+    <t xml:space="preserve">47.95***</t>
   </si>
   <si>
     <t xml:space="preserve">3.07</t>
@@ -65,10 +65,10 @@
     <t xml:space="preserve">[42.23, 54.34]</t>
   </si>
   <si>
-    <t xml:space="preserve">100%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117.27*</t>
+    <t xml:space="preserve">100.00%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117.27***</t>
   </si>
   <si>
     <t xml:space="preserve">6.39</t>
@@ -77,7 +77,7 @@
     <t xml:space="preserve">[105.41, 130.66]</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70*</t>
+    <t xml:space="preserve">3.70***</t>
   </si>
   <si>
     <t xml:space="preserve">0.10</t>
@@ -86,7 +86,7 @@
     <t xml:space="preserve">[ 3.50, 3.91]</t>
   </si>
   <si>
-    <t xml:space="preserve">0.29*</t>
+    <t xml:space="preserve">0.29***</t>
   </si>
   <si>
     <t xml:space="preserve">0.08</t>
@@ -107,13 +107,13 @@
     <t xml:space="preserve">[ 0.85,  1.63]</t>
   </si>
   <si>
-    <t xml:space="preserve">84%</t>
+    <t xml:space="preserve">83.80%</t>
   </si>
   <si>
     <t xml:space="preserve">Intercept[1]</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86*</t>
+    <t xml:space="preserve">3.86***</t>
   </si>
   <si>
     <t xml:space="preserve">1.00</t>
@@ -125,7 +125,7 @@
     <t xml:space="preserve">Intercept[2]</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37*</t>
+    <t xml:space="preserve">8.37***</t>
   </si>
   <si>
     <t xml:space="preserve">2.28</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">Intercept[3]</t>
   </si>
   <si>
-    <t xml:space="preserve">23.31*</t>
+    <t xml:space="preserve">23.31***</t>
   </si>
   <si>
     <t xml:space="preserve">6.94</t>
@@ -149,7 +149,7 @@
     <t xml:space="preserve">Intercept[4]</t>
   </si>
   <si>
-    <t xml:space="preserve">101.97*</t>
+    <t xml:space="preserve">101.97***</t>
   </si>
   <si>
     <t xml:space="preserve">35.92</t>
@@ -161,7 +161,7 @@
     <t xml:space="preserve">Intercept[5]</t>
   </si>
   <si>
-    <t xml:space="preserve">3520.05*</t>
+    <t xml:space="preserve">3520.05***</t>
   </si>
   <si>
     <t xml:space="preserve">2273.24</t>
@@ -185,7 +185,7 @@
     <t xml:space="preserve">[ 0.97,  1.08]</t>
   </si>
   <si>
-    <t xml:space="preserve">83%</t>
+    <t xml:space="preserve">83.24%</t>
   </si>
   <si>
     <t xml:space="preserve">0.02</t>
@@ -194,7 +194,7 @@
     <t xml:space="preserve">[  1.00,   1.06]</t>
   </si>
   <si>
-    <t xml:space="preserve">97%</t>
+    <t xml:space="preserve">96.53%</t>
   </si>
   <si>
     <t xml:space="preserve">0.00</t>
@@ -203,7 +203,7 @@
     <t xml:space="preserve">[-0.04, 0.05]</t>
   </si>
   <si>
-    <t xml:space="preserve">55%</t>
+    <t xml:space="preserve">54.54%</t>
   </si>
   <si>
     <t xml:space="preserve">0.85*</t>
@@ -215,7 +215,7 @@
     <t xml:space="preserve">[   0.71,     0.99]</t>
   </si>
   <si>
-    <t xml:space="preserve">98%</t>
+    <t xml:space="preserve">97.97%</t>
   </si>
   <si>
     <t xml:space="preserve">0.84</t>
@@ -224,7 +224,7 @@
     <t xml:space="preserve">[0.69,   1.01]</t>
   </si>
   <si>
-    <t xml:space="preserve">96%</t>
+    <t xml:space="preserve">96.47%</t>
   </si>
   <si>
     <t xml:space="preserve">Daily persuasion utilized (partner's view)</t>
@@ -233,7 +233,7 @@
     <t xml:space="preserve">[ 0.98,  1.08]</t>
   </si>
   <si>
-    <t xml:space="preserve">90%</t>
+    <t xml:space="preserve">90.16%</t>
   </si>
   <si>
     <t xml:space="preserve">1.02</t>
@@ -242,16 +242,19 @@
     <t xml:space="preserve">[  0.99,   1.05]</t>
   </si>
   <si>
-    <t xml:space="preserve">89%</t>
+    <t xml:space="preserve">88.83%</t>
   </si>
   <si>
     <t xml:space="preserve">[-0.02, 0.07]</t>
   </si>
   <si>
+    <t xml:space="preserve">82.80%</t>
+  </si>
+  <si>
     <t xml:space="preserve">[   0.84,     1.24]</t>
   </si>
   <si>
-    <t xml:space="preserve">60%</t>
+    <t xml:space="preserve">60.38%</t>
   </si>
   <si>
     <t xml:space="preserve">1.12</t>
@@ -263,7 +266,7 @@
     <t xml:space="preserve">[0.85,   1.53]</t>
   </si>
   <si>
-    <t xml:space="preserve">79%</t>
+    <t xml:space="preserve">78.62%</t>
   </si>
   <si>
     <t xml:space="preserve">Daily pressure experienced</t>
@@ -278,7 +281,7 @@
     <t xml:space="preserve">[ 0.80,  0.98]</t>
   </si>
   <si>
-    <t xml:space="preserve">99%</t>
+    <t xml:space="preserve">98.71%</t>
   </si>
   <si>
     <t xml:space="preserve">0.94</t>
@@ -287,13 +290,16 @@
     <t xml:space="preserve">[  0.88,   1.01]</t>
   </si>
   <si>
+    <t xml:space="preserve">95.99%</t>
+  </si>
+  <si>
     <t xml:space="preserve">-0.04</t>
   </si>
   <si>
     <t xml:space="preserve">[-0.15, 0.07]</t>
   </si>
   <si>
-    <t xml:space="preserve">77%</t>
+    <t xml:space="preserve">76.90%</t>
   </si>
   <si>
     <t xml:space="preserve">1.84*</t>
@@ -305,6 +311,9 @@
     <t xml:space="preserve">[   1.18,     2.69]</t>
   </si>
   <si>
+    <t xml:space="preserve">99.38%</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.03*</t>
   </si>
   <si>
@@ -314,6 +323,9 @@
     <t xml:space="preserve">[1.03,   4.47]</t>
   </si>
   <si>
+    <t xml:space="preserve">97.91%</t>
+  </si>
+  <si>
     <t xml:space="preserve">Daily pressure utilized (partner's view)</t>
   </si>
   <si>
@@ -323,7 +335,7 @@
     <t xml:space="preserve">[ 0.86,  1.03]</t>
   </si>
   <si>
-    <t xml:space="preserve">92%</t>
+    <t xml:space="preserve">91.68%</t>
   </si>
   <si>
     <t xml:space="preserve">0.98</t>
@@ -332,7 +344,7 @@
     <t xml:space="preserve">[  0.92,   1.05]</t>
   </si>
   <si>
-    <t xml:space="preserve">72%</t>
+    <t xml:space="preserve">71.66%</t>
   </si>
   <si>
     <t xml:space="preserve">-0.03</t>
@@ -344,7 +356,7 @@
     <t xml:space="preserve">[-0.14, 0.08]</t>
   </si>
   <si>
-    <t xml:space="preserve">67%</t>
+    <t xml:space="preserve">66.80%</t>
   </si>
   <si>
     <t xml:space="preserve">1.23</t>
@@ -356,7 +368,7 @@
     <t xml:space="preserve">[   0.70,     2.08]</t>
   </si>
   <si>
-    <t xml:space="preserve">81%</t>
+    <t xml:space="preserve">80.82%</t>
   </si>
   <si>
     <t xml:space="preserve">1.45</t>
@@ -368,7 +380,7 @@
     <t xml:space="preserve">[0.59,   4.18]</t>
   </si>
   <si>
-    <t xml:space="preserve">80%</t>
+    <t xml:space="preserve">80.24%</t>
   </si>
   <si>
     <t xml:space="preserve">Daily pushing experienced</t>
@@ -377,13 +389,19 @@
     <t xml:space="preserve">[ 0.96,  1.10]</t>
   </si>
   <si>
+    <t xml:space="preserve">76.93%</t>
+  </si>
+  <si>
     <t xml:space="preserve">[  0.98,   1.08]</t>
   </si>
   <si>
+    <t xml:space="preserve">90.00%</t>
+  </si>
+  <si>
     <t xml:space="preserve">[-0.04, 0.08]</t>
   </si>
   <si>
-    <t xml:space="preserve">76%</t>
+    <t xml:space="preserve">75.78%</t>
   </si>
   <si>
     <t xml:space="preserve">1.17</t>
@@ -395,7 +413,7 @@
     <t xml:space="preserve">[   0.96,     1.42]</t>
   </si>
   <si>
-    <t xml:space="preserve">95%</t>
+    <t xml:space="preserve">94.52%</t>
   </si>
   <si>
     <t xml:space="preserve">1.27*</t>
@@ -407,6 +425,9 @@
     <t xml:space="preserve">[1.01,   1.63]</t>
   </si>
   <si>
+    <t xml:space="preserve">97.89%</t>
+  </si>
+  <si>
     <t xml:space="preserve">Daily pushing utilized (partner's view)</t>
   </si>
   <si>
@@ -416,24 +437,33 @@
     <t xml:space="preserve">[ 0.93,  1.05]</t>
   </si>
   <si>
-    <t xml:space="preserve">64%</t>
+    <t xml:space="preserve">63.65%</t>
   </si>
   <si>
     <t xml:space="preserve">[  0.97,   1.06]</t>
   </si>
   <si>
+    <t xml:space="preserve">77.40%</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.08*</t>
   </si>
   <si>
     <t xml:space="preserve">[ 0.01, 0.14]</t>
   </si>
   <si>
+    <t xml:space="preserve">98.45%</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.91</t>
   </si>
   <si>
     <t xml:space="preserve">[   0.71,     1.17]</t>
   </si>
   <si>
+    <t xml:space="preserve">76.80%</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.89</t>
   </si>
   <si>
@@ -443,7 +473,7 @@
     <t xml:space="preserve">[0.60,   1.31]</t>
   </si>
   <si>
-    <t xml:space="preserve">74%</t>
+    <t xml:space="preserve">73.50%</t>
   </si>
   <si>
     <t xml:space="preserve">Day</t>
@@ -455,16 +485,19 @@
     <t xml:space="preserve">[ 0.89,  1.14]</t>
   </si>
   <si>
+    <t xml:space="preserve">54.95%</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.97</t>
   </si>
   <si>
     <t xml:space="preserve">[  0.91,   1.04]</t>
   </si>
   <si>
-    <t xml:space="preserve">78%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.26*</t>
+    <t xml:space="preserve">78.37%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.26***</t>
   </si>
   <si>
     <t xml:space="preserve">[ 0.15, 0.37]</t>
@@ -479,7 +512,7 @@
     <t xml:space="preserve">[   0.77,     2.86]</t>
   </si>
   <si>
-    <t xml:space="preserve">87%</t>
+    <t xml:space="preserve">87.16%</t>
   </si>
   <si>
     <t xml:space="preserve">1.64</t>
@@ -491,10 +524,13 @@
     <t xml:space="preserve">[0.76,   3.51]</t>
   </si>
   <si>
+    <t xml:space="preserve">89.82%</t>
+  </si>
+  <si>
     <t xml:space="preserve">Daily weartime</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00*</t>
+    <t xml:space="preserve">1.00***</t>
   </si>
   <si>
     <t xml:space="preserve">[  1.00,   1.00]</t>
@@ -509,7 +545,7 @@
     <t xml:space="preserve">[ 0.74,  1.39]</t>
   </si>
   <si>
-    <t xml:space="preserve">53%</t>
+    <t xml:space="preserve">53.40%</t>
   </si>
   <si>
     <t xml:space="preserve">1.10</t>
@@ -518,6 +554,9 @@
     <t xml:space="preserve">[  0.83,   1.47]</t>
   </si>
   <si>
+    <t xml:space="preserve">75.59%</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.35</t>
   </si>
   <si>
@@ -527,13 +566,16 @@
     <t xml:space="preserve">[-0.20, 0.89]</t>
   </si>
   <si>
+    <t xml:space="preserve">89.30%</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.59</t>
   </si>
   <si>
     <t xml:space="preserve">[   0.41,     3.14]</t>
   </si>
   <si>
-    <t xml:space="preserve">59%</t>
+    <t xml:space="preserve">59.12%</t>
   </si>
   <si>
     <t xml:space="preserve">2.00</t>
@@ -542,13 +584,16 @@
     <t xml:space="preserve">[0.60,   6.84]</t>
   </si>
   <si>
+    <t xml:space="preserve">87.26%</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mean persuasion utilized (partner's view)</t>
   </si>
   <si>
     <t xml:space="preserve">[ 0.72,  1.35]</t>
   </si>
   <si>
-    <t xml:space="preserve">54%</t>
+    <t xml:space="preserve">53.95%</t>
   </si>
   <si>
     <t xml:space="preserve">0.14</t>
@@ -557,12 +602,18 @@
     <t xml:space="preserve">[  0.73,   1.31]</t>
   </si>
   <si>
+    <t xml:space="preserve">55.00%</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.23</t>
   </si>
   <si>
     <t xml:space="preserve">[-0.31, 0.78]</t>
   </si>
   <si>
+    <t xml:space="preserve">79.91%</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.39</t>
   </si>
   <si>
@@ -572,7 +623,7 @@
     <t xml:space="preserve">[   0.45,     4.35]</t>
   </si>
   <si>
-    <t xml:space="preserve">71%</t>
+    <t xml:space="preserve">71.27%</t>
   </si>
   <si>
     <t xml:space="preserve">1.89</t>
@@ -584,6 +635,9 @@
     <t xml:space="preserve">[0.52,   7.23]</t>
   </si>
   <si>
+    <t xml:space="preserve">82.88%</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mean pressure experienced</t>
   </si>
   <si>
@@ -596,10 +650,13 @@
     <t xml:space="preserve">[ 0.80,  1.64]</t>
   </si>
   <si>
+    <t xml:space="preserve">76.54%</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.15</t>
   </si>
   <si>
-    <t xml:space="preserve">56%</t>
+    <t xml:space="preserve">56.39%</t>
   </si>
   <si>
     <t xml:space="preserve">-0.32</t>
@@ -608,7 +665,7 @@
     <t xml:space="preserve">[-0.86, 0.23]</t>
   </si>
   <si>
-    <t xml:space="preserve">88%</t>
+    <t xml:space="preserve">87.62%</t>
   </si>
   <si>
     <t xml:space="preserve">3.48*</t>
@@ -620,7 +677,10 @@
     <t xml:space="preserve">[   1.18,    10.66]</t>
   </si>
   <si>
-    <t xml:space="preserve">17.75*</t>
+    <t xml:space="preserve">98.83%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.75**</t>
   </si>
   <si>
     <t xml:space="preserve">18.90</t>
@@ -629,6 +689,9 @@
     <t xml:space="preserve">[2.39, 155.22]</t>
   </si>
   <si>
+    <t xml:space="preserve">99.77%</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mean pressure utilized (partner's view)</t>
   </si>
   <si>
@@ -638,19 +701,28 @@
     <t xml:space="preserve">[ 0.61,  1.29]</t>
   </si>
   <si>
+    <t xml:space="preserve">74.45%</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.96</t>
   </si>
   <si>
     <t xml:space="preserve">[  0.72,   1.28]</t>
   </si>
   <si>
+    <t xml:space="preserve">60.24%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.67%</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.67</t>
   </si>
   <si>
     <t xml:space="preserve">[   0.37,     3.58]</t>
   </si>
   <si>
-    <t xml:space="preserve">61%</t>
+    <t xml:space="preserve">61.23%</t>
   </si>
   <si>
     <t xml:space="preserve">2.54</t>
@@ -659,6 +731,9 @@
     <t xml:space="preserve">[0.25,  19.47]</t>
   </si>
   <si>
+    <t xml:space="preserve">77.24%</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mean pushing experienced</t>
   </si>
   <si>
@@ -671,9 +746,15 @@
     <t xml:space="preserve">[ 0.84,  2.09]</t>
   </si>
   <si>
+    <t xml:space="preserve">88.55%</t>
+  </si>
+  <si>
     <t xml:space="preserve">[  0.64,   1.47]</t>
   </si>
   <si>
+    <t xml:space="preserve">56.15%</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.22</t>
   </si>
   <si>
@@ -683,6 +764,9 @@
     <t xml:space="preserve">[-0.55, 1.01]</t>
   </si>
   <si>
+    <t xml:space="preserve">71.39%</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.22</t>
   </si>
   <si>
@@ -692,6 +776,9 @@
     <t xml:space="preserve">[   0.28,     5.59]</t>
   </si>
   <si>
+    <t xml:space="preserve">59.92%</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.83</t>
   </si>
   <si>
@@ -701,7 +788,7 @@
     <t xml:space="preserve">[0.12,   6.10]</t>
   </si>
   <si>
-    <t xml:space="preserve">58%</t>
+    <t xml:space="preserve">58.04%</t>
   </si>
   <si>
     <t xml:space="preserve">Mean pushing utilized (partner's view)</t>
@@ -713,6 +800,9 @@
     <t xml:space="preserve">[ 0.88,  2.24]</t>
   </si>
   <si>
+    <t xml:space="preserve">92.27%</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.24</t>
   </si>
   <si>
@@ -722,7 +812,7 @@
     <t xml:space="preserve">[  0.83,   1.88]</t>
   </si>
   <si>
-    <t xml:space="preserve">86%</t>
+    <t xml:space="preserve">85.86%</t>
   </si>
   <si>
     <t xml:space="preserve">0.36</t>
@@ -731,7 +821,7 @@
     <t xml:space="preserve">[-0.41, 1.14]</t>
   </si>
   <si>
-    <t xml:space="preserve">82%</t>
+    <t xml:space="preserve">82.26%</t>
   </si>
   <si>
     <t xml:space="preserve">0.11*</t>
@@ -740,13 +830,19 @@
     <t xml:space="preserve">[   0.02,     0.64]</t>
   </si>
   <si>
+    <t xml:space="preserve">99.30%</t>
+  </si>
+  <si>
     <t xml:space="preserve">[0.01,   0.65]</t>
   </si>
   <si>
+    <t xml:space="preserve">99.01%</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mean weartime</t>
   </si>
   <si>
-    <t xml:space="preserve">91%</t>
+    <t xml:space="preserve">91.16%</t>
   </si>
   <si>
     <t xml:space="preserve">Hurdle Within-Person Effects</t>
@@ -755,7 +851,7 @@
     <t xml:space="preserve">Hu Daily persuasion experienced</t>
   </si>
   <si>
-    <t xml:space="preserve">0.65*</t>
+    <t xml:space="preserve">0.65***</t>
   </si>
   <si>
     <t xml:space="preserve">[ 0.57,  0.74]</t>
@@ -764,7 +860,7 @@
     <t xml:space="preserve">Hu Daily persuasion utilized (partner's view)</t>
   </si>
   <si>
-    <t xml:space="preserve">0.75*</t>
+    <t xml:space="preserve">0.75***</t>
   </si>
   <si>
     <t xml:space="preserve">[ 0.67,  0.84]</t>
@@ -776,6 +872,9 @@
     <t xml:space="preserve">[ 0.88,  1.72]</t>
   </si>
   <si>
+    <t xml:space="preserve">89.75%</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hu Daily pressure utilized (partner's view)</t>
   </si>
   <si>
@@ -788,19 +887,25 @@
     <t xml:space="preserve">[ 0.43,  0.95]</t>
   </si>
   <si>
+    <t xml:space="preserve">98.77%</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hu Daily pushing experienced</t>
   </si>
   <si>
-    <t xml:space="preserve">0.58*</t>
+    <t xml:space="preserve">0.58***</t>
   </si>
   <si>
     <t xml:space="preserve">[ 0.41,  0.78]</t>
   </si>
   <si>
+    <t xml:space="preserve">99.97%</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hu Daily pushing utilized (partner's view)</t>
   </si>
   <si>
-    <t xml:space="preserve">0.54*</t>
+    <t xml:space="preserve">0.54***</t>
   </si>
   <si>
     <t xml:space="preserve">[ 0.41,  0.68]</t>
@@ -815,6 +920,9 @@
     <t xml:space="preserve">[ 0.84,  1.41]</t>
   </si>
   <si>
+    <t xml:space="preserve">74.29%</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hu Daily weartime</t>
   </si>
   <si>
@@ -830,6 +938,9 @@
     <t xml:space="preserve">[ 0.38,  1.84]</t>
   </si>
   <si>
+    <t xml:space="preserve">67.33%</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hu Mean persuasion utilized (partner's view)</t>
   </si>
   <si>
@@ -839,10 +950,13 @@
     <t xml:space="preserve">[ 0.39,  1.87]</t>
   </si>
   <si>
+    <t xml:space="preserve">66.74%</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hu Mean pressure experienced</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22*</t>
+    <t xml:space="preserve">3.22**</t>
   </si>
   <si>
     <t xml:space="preserve">1.41</t>
@@ -851,6 +965,9 @@
     <t xml:space="preserve">[ 1.36,  7.67]</t>
   </si>
   <si>
+    <t xml:space="preserve">99.63%</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hu Mean pressure utilized (partner's view)</t>
   </si>
   <si>
@@ -872,10 +989,16 @@
     <t xml:space="preserve">[ 0.12,  1.15]</t>
   </si>
   <si>
+    <t xml:space="preserve">95.77%</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hu Mean pushing utilized (partner's view)</t>
   </si>
   <si>
     <t xml:space="preserve">[ 0.12,  1.13]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.16%</t>
   </si>
   <si>
     <t xml:space="preserve">Hu Mean weartime</t>
@@ -2121,7 +2244,7 @@
         <v>77</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>74</v>
@@ -2130,169 +2253,169 @@
         <v>22</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>55</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>55</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>54</v>
@@ -2301,10 +2424,10 @@
         <v>55</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>58</v>
@@ -2313,51 +2436,51 @@
         <v>55</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>67</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>74</v>
@@ -2366,129 +2489,129 @@
         <v>58</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>55</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>67</v>
+        <v>146</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>63</v>
+        <v>157</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>55</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>73</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="5" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>61</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>17</v>
@@ -2508,462 +2631,462 @@
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>63</v>
+        <v>196</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>118</v>
+        <v>199</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>57</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>93</v>
+        <v>212</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>88</v>
+        <v>221</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>17</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>143</v>
+        <v>229</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>79</v>
+        <v>232</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="R24" s="1" t="s">
         <v>38</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>93</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>186</v>
+        <v>250</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="7" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>103</v>
+        <v>262</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="O26" s="1" t="s">
         <v>22</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>88</v>
+        <v>272</v>
       </c>
       <c r="R26" s="5" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="S26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>88</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="7" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2976,10 +3099,10 @@
         <v>61</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -2996,81 +3119,81 @@
     </row>
     <row r="28">
       <c r="A28" s="8" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="7" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>17</v>
@@ -3094,16 +3217,16 @@
     </row>
     <row r="30">
       <c r="A30" s="7" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>17</v>
@@ -3127,19 +3250,19 @@
     </row>
     <row r="31">
       <c r="A31" s="7" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>73</v>
+        <v>286</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -3160,19 +3283,19 @@
     </row>
     <row r="32">
       <c r="A32" s="7" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>88</v>
+        <v>291</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -3193,19 +3316,19 @@
     </row>
     <row r="33">
       <c r="A33" s="7" t="s">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>17</v>
+        <v>295</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -3226,16 +3349,16 @@
     </row>
     <row r="34">
       <c r="A34" s="7" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>17</v>
@@ -3259,19 +3382,19 @@
     </row>
     <row r="35">
       <c r="A35" s="7" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>143</v>
+        <v>302</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -3292,7 +3415,7 @@
     </row>
     <row r="36">
       <c r="A36" s="7" t="s">
-        <v>267</v>
+        <v>303</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -3317,84 +3440,84 @@
     </row>
     <row r="37">
       <c r="A37" s="8" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="T37" s="1" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="7" t="s">
-        <v>269</v>
+        <v>305</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>271</v>
+        <v>307</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>110</v>
+        <v>308</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -3415,19 +3538,19 @@
     </row>
     <row r="39">
       <c r="A39" s="7" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>110</v>
+        <v>312</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -3448,19 +3571,19 @@
     </row>
     <row r="40">
       <c r="A40" s="7" t="s">
-        <v>275</v>
+        <v>313</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>277</v>
+        <v>315</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>17</v>
+        <v>317</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -3481,16 +3604,16 @@
     </row>
     <row r="41">
       <c r="A41" s="7" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>281</v>
+        <v>320</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>282</v>
+        <v>321</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>73</v>
@@ -3514,19 +3637,19 @@
     </row>
     <row r="42">
       <c r="A42" s="7" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>70</v>
+        <v>325</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -3547,19 +3670,19 @@
     </row>
     <row r="43">
       <c r="A43" s="7" t="s">
-        <v>286</v>
+        <v>326</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>287</v>
+        <v>327</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>70</v>
+        <v>328</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -3580,7 +3703,7 @@
     </row>
     <row r="44">
       <c r="A44" s="7" t="s">
-        <v>288</v>
+        <v>329</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -3605,136 +3728,136 @@
     </row>
     <row r="45">
       <c r="A45" s="8" t="s">
-        <v>289</v>
+        <v>330</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>289</v>
+        <v>330</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>289</v>
+        <v>330</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>289</v>
+        <v>330</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>289</v>
+        <v>330</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>289</v>
+        <v>330</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>289</v>
+        <v>330</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>289</v>
+        <v>330</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>289</v>
+        <v>330</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>289</v>
+        <v>330</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>289</v>
+        <v>330</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>289</v>
+        <v>330</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>289</v>
+        <v>330</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>289</v>
+        <v>330</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>289</v>
+        <v>330</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>289</v>
+        <v>330</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>289</v>
+        <v>330</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>289</v>
+        <v>330</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>289</v>
+        <v>330</v>
       </c>
       <c r="T45" s="1" t="s">
-        <v>289</v>
+        <v>330</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>289</v>
+        <v>330</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="7" t="s">
-        <v>290</v>
+        <v>331</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>291</v>
+        <v>332</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>292</v>
+        <v>333</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>293</v>
+        <v>334</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1" t="s">
-        <v>294</v>
+        <v>335</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>295</v>
+        <v>336</v>
       </c>
       <c r="M46" s="1"/>
       <c r="N46" s="1" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="O46" s="1" t="s">
         <v>29</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>296</v>
+        <v>337</v>
       </c>
       <c r="Q46" s="1"/>
       <c r="R46" s="1" t="s">
         <v>28</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>297</v>
+        <v>338</v>
       </c>
       <c r="U46" s="1"/>
     </row>
     <row r="47">
       <c r="A47" s="7" t="s">
-        <v>298</v>
+        <v>339</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>299</v>
+        <v>340</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>300</v>
+        <v>341</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -3756,81 +3879,81 @@
     </row>
     <row r="48">
       <c r="A48" s="7" t="s">
-        <v>301</v>
+        <v>342</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>302</v>
+        <v>343</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>58</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>303</v>
+        <v>344</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>55</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>304</v>
+        <v>345</v>
       </c>
       <c r="M48" s="1"/>
       <c r="N48" s="1" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>305</v>
+        <v>346</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>306</v>
+        <v>347</v>
       </c>
       <c r="Q48" s="1"/>
       <c r="R48" s="1" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="T48" s="1" t="s">
-        <v>307</v>
+        <v>348</v>
       </c>
       <c r="U48" s="1"/>
     </row>
     <row r="49">
       <c r="A49" s="7" t="s">
-        <v>308</v>
+        <v>349</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>309</v>
+        <v>350</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>310</v>
+        <v>351</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>58</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>311</v>
+        <v>352</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1" t="s">
@@ -3840,262 +3963,262 @@
         <v>55</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>312</v>
+        <v>353</v>
       </c>
       <c r="M49" s="1"/>
       <c r="N49" s="1" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>307</v>
+        <v>348</v>
       </c>
       <c r="Q49" s="1"/>
       <c r="R49" s="1" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>313</v>
+        <v>354</v>
       </c>
       <c r="U49" s="1"/>
     </row>
     <row r="50">
       <c r="A50" s="7" t="s">
-        <v>314</v>
+        <v>355</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>315</v>
+        <v>356</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>315</v>
+        <v>356</v>
       </c>
       <c r="M50" s="1"/>
       <c r="N50" s="1" t="s">
-        <v>317</v>
+        <v>358</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>318</v>
+        <v>359</v>
       </c>
       <c r="Q50" s="1"/>
       <c r="R50" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>319</v>
+        <v>360</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>320</v>
+        <v>361</v>
       </c>
       <c r="U50" s="1"/>
     </row>
     <row r="51">
       <c r="A51" s="7" t="s">
-        <v>321</v>
+        <v>362</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>322</v>
+        <v>363</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>55</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>323</v>
+        <v>364</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1" t="s">
-        <v>309</v>
+        <v>350</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>65</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>324</v>
+        <v>365</v>
       </c>
       <c r="M51" s="1"/>
       <c r="N51" s="1" t="s">
-        <v>325</v>
+        <v>366</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>326</v>
+        <v>367</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>327</v>
+        <v>368</v>
       </c>
       <c r="Q51" s="1"/>
       <c r="R51" s="1" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>328</v>
+        <v>369</v>
       </c>
       <c r="T51" s="1" t="s">
-        <v>329</v>
+        <v>370</v>
       </c>
       <c r="U51" s="1"/>
     </row>
     <row r="52">
       <c r="A52" s="7" t="s">
-        <v>330</v>
+        <v>371</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>305</v>
+        <v>346</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>331</v>
+        <v>372</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>332</v>
+        <v>373</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="M52" s="1"/>
       <c r="N52" s="1" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>307</v>
+        <v>348</v>
       </c>
       <c r="Q52" s="1"/>
       <c r="R52" s="1" t="s">
-        <v>334</v>
+        <v>375</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="T52" s="1" t="s">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="U52" s="1"/>
     </row>
     <row r="53">
       <c r="A53" s="7" t="s">
-        <v>336</v>
+        <v>377</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>309</v>
+        <v>350</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>55</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>304</v>
+        <v>345</v>
       </c>
       <c r="I53" s="1"/>
       <c r="J53" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="M53" s="1"/>
       <c r="N53" s="1" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="Q53" s="1"/>
       <c r="R53" s="1" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>334</v>
+        <v>375</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="U53" s="1"/>
     </row>
     <row r="54">
       <c r="A54" s="7" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -4117,16 +4240,16 @@
     </row>
     <row r="55">
       <c r="A55" s="7" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>343</v>
+        <v>384</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -4148,16 +4271,16 @@
     </row>
     <row r="56">
       <c r="A56" s="7" t="s">
-        <v>344</v>
+        <v>385</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>346</v>
+        <v>387</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -4179,16 +4302,16 @@
     </row>
     <row r="57">
       <c r="A57" s="7" t="s">
-        <v>347</v>
+        <v>388</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>348</v>
+        <v>389</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>349</v>
+        <v>390</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -4210,16 +4333,16 @@
     </row>
     <row r="58">
       <c r="A58" s="7" t="s">
-        <v>350</v>
+        <v>391</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>351</v>
+        <v>392</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>352</v>
+        <v>393</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -4241,16 +4364,16 @@
     </row>
     <row r="59">
       <c r="A59" s="7" t="s">
-        <v>353</v>
+        <v>394</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>291</v>
+        <v>332</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>354</v>
+        <v>395</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -4272,72 +4395,72 @@
     </row>
     <row r="60">
       <c r="A60" s="8" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="R60" s="1" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="S60" s="1" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="T60" s="1" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="U60" s="1" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="7" t="s">
-        <v>356</v>
+        <v>397</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -4362,7 +4485,7 @@
     </row>
     <row r="62">
       <c r="A62" s="7" t="s">
-        <v>357</v>
+        <v>398</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -4387,7 +4510,7 @@
     </row>
     <row r="63">
       <c r="A63" s="7" t="s">
-        <v>358</v>
+        <v>399</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -4412,7 +4535,7 @@
     </row>
     <row r="64">
       <c r="A64" s="7" t="s">
-        <v>359</v>
+        <v>400</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -4437,7 +4560,7 @@
     </row>
     <row r="65">
       <c r="A65" s="7" t="s">
-        <v>360</v>
+        <v>401</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -4462,7 +4585,7 @@
     </row>
     <row r="66">
       <c r="A66" s="7" t="s">
-        <v>361</v>
+        <v>402</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -4487,36 +4610,36 @@
     </row>
     <row r="67">
       <c r="A67" s="7" t="s">
-        <v>362</v>
+        <v>403</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>363</v>
+        <v>404</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>364</v>
+        <v>405</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>365</v>
+        <v>406</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
-        <v>319</v>
+        <v>360</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>364</v>
+        <v>405</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>366</v>
+        <v>407</v>
       </c>
       <c r="I67" s="1"/>
       <c r="J67" s="1" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>364</v>
+        <v>405</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>367</v>
+        <v>408</v>
       </c>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
@@ -4530,7 +4653,7 @@
     </row>
     <row r="68">
       <c r="A68" s="9" t="s">
-        <v>368</v>
+        <v>409</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -4551,7 +4674,7 @@
         <v>61</v>
       </c>
       <c r="P68" s="4" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>

--- a/Output/AllModelsFinal.xlsx
+++ b/Output/AllModelsFinal.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="409">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">47.95***</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07</t>
+    <t xml:space="preserve">3.03</t>
   </si>
   <si>
     <t xml:space="preserve">[42.23, 54.34]</t>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">117.27***</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39</t>
+    <t xml:space="preserve">6.24</t>
   </si>
   <si>
     <t xml:space="preserve">[105.41, 130.66]</t>
@@ -101,1065 +101,1068 @@
     <t xml:space="preserve">1.18</t>
   </si>
   <si>
+    <t xml:space="preserve">0.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.85,  1.63]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.80%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intercept[1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[   2.34,     6.49]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intercept[2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[   4.96,    14.45]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intercept[3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.17***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  13.17,    42.42]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intercept[4]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101.19***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  52.40,   208.53]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intercept[5]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3422.14***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2190.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1091.76, 13601.17]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conditional Within-Person Effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily persuasion experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.97,  1.08]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.24%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  1.00,   1.06]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.53%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.04, 0.05]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.54%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.85*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[   0.71,     0.99]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.97%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.69,   1.01]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.47%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily persuasion utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.98,  1.08]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90.16%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.99,   1.05]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.83%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.02, 0.07]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.80%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[   0.84,     1.24]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.38%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.85,   1.53]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.62%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily pressure experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.89*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.80,  0.98]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.71%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.88,   1.01]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.99%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.15, 0.07]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.90%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[   1.18,     2.69]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.38%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.03,   4.47]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.91%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily pressure utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.86,  1.03]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91.68%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.92,   1.05]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.66%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.14, 0.08]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.80%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[   0.70,     2.08]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.82%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.59,   4.18]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.24%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily pushing experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.96,  1.10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.93%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.98,   1.08]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90.00%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.04, 0.08]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.78%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[   0.96,     1.42]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94.52%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.01,   1.63]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.89%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily pushing utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.93,  1.05]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.65%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.97,   1.06]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77.40%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.08*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.01, 0.14]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.45%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[   0.71,     1.17]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.80%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.60,   1.31]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.50%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.89,  1.14]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.95%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.91,   1.04]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.37%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.26***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.15, 0.37]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[   0.77,     2.86]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.16%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.76,   3.51]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.82%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily weartime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  1.00,   1.00]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conditional Between-Person Effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean persuasion experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.74,  1.39]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.40%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.83,   1.47]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.59%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.20, 0.89]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.30%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[   0.41,     3.14]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.12%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.60,   6.84]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.26%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean persuasion utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.72,  1.35]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.95%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.73,   1.31]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.00%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.31, 0.78]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.91%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[   0.45,     4.35]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.27%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.52,   7.23]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.88%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean pressure experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.80,  1.64]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.54%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.39%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.86, 0.23]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.62%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[   1.18,    10.66]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.83%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.42**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2.39, 155.22]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.77%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean pressure utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.61,  1.29]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.45%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.72,   1.28]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.24%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.67%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[   0.37,     3.58]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.23%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.25,  19.47]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77.24%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean pushing experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.84,  2.09]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.55%</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.20</t>
   </si>
   <si>
-    <t xml:space="preserve">[ 0.85,  1.63]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.80%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intercept[1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86***</t>
+    <t xml:space="preserve">[  0.64,   1.47]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.15%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.55, 1.01]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.39%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[   0.28,     5.59]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.92%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.12,   6.10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.04%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean pushing utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.88,  2.24]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92.27%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.83,   1.88]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.86%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.41, 1.14]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.26%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[   0.02,     0.64]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.30%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01,   0.65]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.01%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean weartime</t>
   </si>
   <si>
     <t xml:space="preserve">1.00</t>
   </si>
   <si>
-    <t xml:space="preserve">[   2.34,     6.49]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intercept[2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   4.96,    14.45]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intercept[3]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.31***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  13.17,    42.42]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intercept[4]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101.97***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  52.40,   208.53]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intercept[5]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3520.05***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2273.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1091.76, 13601.17]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conditional Within-Person Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily persuasion experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.97,  1.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.24%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  1.00,   1.06]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.53%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.04, 0.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.54%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.85*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.71,     0.99]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.97%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.69,   1.01]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.47%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily persuasion utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.98,  1.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.16%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.99,   1.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88.83%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.02, 0.07]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.80%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.84,     1.24]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.38%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.85,   1.53]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.62%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily pressure experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.89*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.80,  0.98]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98.71%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.88,   1.01]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.99%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.15, 0.07]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.90%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   1.18,     2.69]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99.38%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.03,   4.47]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.91%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily pressure utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.86,  1.03]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91.68%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.92,   1.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.66%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.14, 0.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.80%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.70,     2.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.82%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.59,   4.18]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.24%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily pushing experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.96,  1.10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.93%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.98,   1.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.00%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.04, 0.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.78%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17</t>
+    <t xml:space="preserve">91.16%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hurdle Within-Person Effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu Daily persuasion experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.65***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.57,  0.74]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu Daily persuasion utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.76***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.67,  0.84]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu Daily pressure experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.88,  1.72]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.75%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu Daily pressure utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.68*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.43,  0.95]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.77%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu Daily pushing experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.58***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.41,  0.78]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.97%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu Daily pushing utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.55***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.41,  0.68]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu Day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.84,  1.41]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.29%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu Daily weartime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hurdle Between-Person Effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu Mean persuasion experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.38,  1.84]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.33%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu Mean persuasion utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.39,  1.87]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.74%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu Mean pressure experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.36,  7.67]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.63%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu Mean pressure utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.74,  4.11]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu Mean pushing experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.12,  1.15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.77%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu Mean pushing utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.12,  1.13]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.16%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu Mean weartime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random Effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Intercept)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.24, 0.42]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.24, 0.40]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.48, 0.78]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.48, 1.26]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.74, 1.74]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Hurdle Intercept)</t>
   </si>
   <si>
     <t xml:space="preserve">0.12</t>
   </si>
   <si>
-    <t xml:space="preserve">[   0.96,     1.42]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94.52%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.01,   1.63]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.89%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily pushing utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.93,  1.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.65%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.97,   1.06]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77.40%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.08*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.01, 0.14]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98.45%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.71,     1.17]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.80%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.89</t>
+    <t xml:space="preserve">[0.69, 1.18]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily persuasion experienced)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.08, 0.17]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.02, 0.08]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.42]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.51]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily persuasion utilized (partner's view))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.05, 0.13]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.03, 0.09]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.02, 0.13]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.12, 0.97]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily pressure experienced)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.24]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.13]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.10, 1.14]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.14, 2.41]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily pressure utilized (partner's view))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.18]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.11]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.26]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.02, 1.55]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.04, 2.73]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily pushing experienced)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.04, 0.19]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.14]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.59]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily pushing utilized (partner's view))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.02, 0.17]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.17]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.93]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Hu Daily persuasion experienced)</t>
   </si>
   <si>
     <t xml:space="preserve">0.18</t>
   </si>
   <si>
-    <t xml:space="preserve">[0.60,   1.31]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.50%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.89,  1.14]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.95%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.91,   1.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.37%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.26***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.15, 0.37]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.77,     2.86]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.16%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.76,   3.51]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89.82%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily weartime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  1.00,   1.00]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conditional Between-Person Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean persuasion experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.74,  1.39]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.40%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.83,   1.47]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.59%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.20, 0.89]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89.30%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.41,     3.14]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.12%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.60,   6.84]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.26%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean persuasion utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.72,  1.35]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.95%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.73,   1.31]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.00%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.31, 0.78]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.91%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.45,     4.35]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.27%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.52,   7.23]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.88%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean pressure experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.80,  1.64]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.54%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.39%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.86, 0.23]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.62%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   1.18,    10.66]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98.83%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.75**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[2.39, 155.22]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99.77%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean pressure utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.61,  1.29]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.45%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.72,   1.28]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.24%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.67%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.37,     3.58]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.23%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.25,  19.47]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77.24%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean pushing experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.84,  2.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88.55%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.64,   1.47]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.15%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.55, 1.01]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.39%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.28,     5.59]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.92%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.12,   6.10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.04%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean pushing utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.88,  2.24]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92.27%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.83,   1.88]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.86%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.41, 1.14]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.26%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.02,     0.64]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99.30%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01,   0.65]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99.01%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean weartime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91.16%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hurdle Within-Person Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily persuasion experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.65***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.57,  0.74]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily persuasion utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.75***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.67,  0.84]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily pressure experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.88,  1.72]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89.75%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily pressure utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.67*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.43,  0.95]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98.77%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily pushing experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.58***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.41,  0.78]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99.97%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily pushing utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.54***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.41,  0.68]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.84,  1.41]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.29%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily weartime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hurdle Between-Person Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean persuasion experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.38,  1.84]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.33%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean persuasion utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.39,  1.87]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.74%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean pressure experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.36,  7.67]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99.63%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean pressure utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.74,  4.11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean pushing experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.12,  1.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.77%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean pushing utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.12,  1.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.16%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean weartime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Random Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Intercept)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.24, 0.42]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.24, 0.40]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.48, 0.78]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.48, 1.26]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.74, 1.74]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Hurdle Intercept)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.69, 1.18]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily persuasion experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.08, 0.17]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.42]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.51]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily persuasion utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.05, 0.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.03, 0.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.12, 0.97]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily pressure experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.24]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.10, 1.14]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.14, 2.41]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily pressure utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.18]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.26]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 1.55]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.04, 2.73]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily pushing experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.04, 0.19]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.14]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.59]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily pushing utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.17]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.17]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.93]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Hu Daily persuasion experienced)</t>
-  </si>
-  <si>
     <t xml:space="preserve">[0.02, 0.34]</t>
   </si>
   <si>
@@ -1172,25 +1175,19 @@
     <t xml:space="preserve">sd(Hu Daily pressure experienced)</t>
   </si>
   <si>
-    <t xml:space="preserve">0.30</t>
-  </si>
-  <si>
     <t xml:space="preserve">[0.01, 0.85]</t>
   </si>
   <si>
     <t xml:space="preserve">sd(Hu Daily pressure utilized (partner's view))</t>
   </si>
   <si>
-    <t xml:space="preserve">0.27</t>
-  </si>
-  <si>
     <t xml:space="preserve">[0.01, 1.00]</t>
   </si>
   <si>
     <t xml:space="preserve">sd(Hu Daily pushing experienced)</t>
   </si>
   <si>
-    <t xml:space="preserve">0.19</t>
+    <t xml:space="preserve">0.62</t>
   </si>
   <si>
     <t xml:space="preserve">[0.32, 1.08]</t>
@@ -1227,9 +1224,6 @@
   </si>
   <si>
     <t xml:space="preserve">0.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.01</t>
   </si>
   <si>
     <t xml:space="preserve">[0.66, 0.71]</t>
@@ -2247,7 +2241,7 @@
         <v>78</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>22</v>
@@ -2303,48 +2297,48 @@
         <v>93</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>106</v>
@@ -2353,69 +2347,69 @@
         <v>107</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>55</v>
       </c>
       <c r="H15" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="O15" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="P15" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="Q15" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="R15" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="S15" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="T15" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="S15" s="1" t="s">
+      <c r="U15" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="U15" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>54</v>
@@ -2424,10 +2418,10 @@
         <v>55</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>58</v>
@@ -2436,51 +2430,51 @@
         <v>55</v>
       </c>
       <c r="L16" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="N16" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="O16" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="P16" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="Q16" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="R16" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="S16" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="R16" s="5" t="s">
+      <c r="T16" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="S16" s="1" t="s">
+      <c r="U16" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>74</v>
@@ -2489,129 +2483,129 @@
         <v>58</v>
       </c>
       <c r="H17" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J17" s="5" t="s">
         <v>142</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>144</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>55</v>
       </c>
       <c r="L17" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N17" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="O17" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="P17" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="Q17" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="O17" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="P17" s="1" t="s">
+      <c r="R17" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="Q17" s="1" t="s">
+      <c r="S17" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="R17" s="1" t="s">
+      <c r="T17" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="S17" s="1" t="s">
+      <c r="U17" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>55</v>
       </c>
       <c r="H18" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="K18" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="L18" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="N18" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="O18" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="P18" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="P18" s="1" t="s">
+      <c r="Q18" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="R18" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="R18" s="1" t="s">
+      <c r="S18" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="T18" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="S18" s="1" t="s">
+      <c r="U18" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>61</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>17</v>
@@ -2631,318 +2625,318 @@
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="G21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="L21" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="M21" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>81</v>
       </c>
       <c r="O21" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q21" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="P21" s="1" t="s">
+      <c r="R21" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="Q21" s="1" t="s">
+      <c r="S21" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="R21" s="1" t="s">
+      <c r="T21" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="S21" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="T21" s="1" t="s">
+      <c r="U21" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="K22" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="L22" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="L22" s="1" t="s">
+      <c r="M22" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="N22" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="O22" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="P22" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="P22" s="1" t="s">
+      <c r="Q22" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="Q22" s="1" t="s">
+      <c r="R22" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="R22" s="1" t="s">
+      <c r="S22" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="S22" s="1" t="s">
+      <c r="T22" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="T22" s="1" t="s">
+      <c r="U22" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G23" s="1" t="s">
+      <c r="J23" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="I23" s="1" t="s">
+      <c r="K23" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="L23" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="L23" s="1" t="s">
+      <c r="M23" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="N23" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="N23" s="5" t="s">
+      <c r="O23" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="O23" s="1" t="s">
+      <c r="P23" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="P23" s="1" t="s">
+      <c r="Q23" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="Q23" s="1" t="s">
+      <c r="R23" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="R23" s="5" t="s">
+      <c r="S23" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="S23" s="1" t="s">
+      <c r="T23" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="T23" s="1" t="s">
+      <c r="U23" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="U23" s="1" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="H24" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="J24" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="M24" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="M24" s="1" t="s">
+      <c r="N24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O24" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="N24" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="O24" s="1" t="s">
+      <c r="P24" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="P24" s="1" t="s">
+      <c r="Q24" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="Q24" s="1" t="s">
+      <c r="R24" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="S24" s="1" t="s">
         <v>237</v>
@@ -2971,63 +2965,63 @@
         <v>244</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>29</v>
+        <v>245</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>251</v>
+        <v>187</v>
       </c>
       <c r="O25" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="P25" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="P25" s="1" t="s">
+      <c r="Q25" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="Q25" s="1" t="s">
+      <c r="R25" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="R25" s="1" t="s">
+      <c r="S25" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="S25" s="1" t="s">
+      <c r="T25" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="T25" s="1" t="s">
+      <c r="U25" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="U25" s="1" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>261</v>
@@ -3048,58 +3042,58 @@
         <v>266</v>
       </c>
       <c r="J26" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="L26" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="L26" s="1" t="s">
+      <c r="M26" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="N26" s="5" t="s">
         <v>269</v>
-      </c>
-      <c r="N26" s="5" t="s">
-        <v>270</v>
       </c>
       <c r="O26" s="1" t="s">
         <v>22</v>
       </c>
       <c r="P26" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q26" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="Q26" s="1" t="s">
-        <v>272</v>
-      </c>
       <c r="R26" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="S26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="T26" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="U26" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="U26" s="1" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>34</v>
+        <v>275</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>61</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>276</v>
@@ -3190,7 +3184,7 @@
         <v>279</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>280</v>
@@ -3223,7 +3217,7 @@
         <v>282</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>283</v>
@@ -3253,16 +3247,16 @@
         <v>284</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>115</v>
+        <v>285</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>210</v>
+        <v>29</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -3283,19 +3277,19 @@
     </row>
     <row r="32">
       <c r="A32" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -3316,19 +3310,19 @@
     </row>
     <row r="33">
       <c r="A33" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>22</v>
+        <v>295</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -3349,16 +3343,16 @@
     </row>
     <row r="34">
       <c r="A34" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>17</v>
@@ -3382,19 +3376,19 @@
     </row>
     <row r="35">
       <c r="A35" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -3415,7 +3409,7 @@
     </row>
     <row r="36">
       <c r="A36" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -3440,84 +3434,84 @@
     </row>
     <row r="37">
       <c r="A37" s="8" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="T37" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>306</v>
+        <v>260</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -3538,19 +3532,19 @@
     </row>
     <row r="39">
       <c r="A39" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>306</v>
+        <v>260</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -3571,19 +3565,19 @@
     </row>
     <row r="40">
       <c r="A40" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -3604,16 +3598,16 @@
     </row>
     <row r="41">
       <c r="A41" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>73</v>
@@ -3637,19 +3631,19 @@
     </row>
     <row r="42">
       <c r="A42" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -3670,19 +3664,19 @@
     </row>
     <row r="43">
       <c r="A43" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>267</v>
+        <v>98</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -3703,7 +3697,7 @@
     </row>
     <row r="44">
       <c r="A44" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -3728,136 +3722,136 @@
     </row>
     <row r="45">
       <c r="A45" s="8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="T45" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1" t="s">
-        <v>242</v>
+        <v>335</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M46" s="1"/>
       <c r="N46" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>29</v>
+        <v>245</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q46" s="1"/>
       <c r="R46" s="1" t="s">
-        <v>28</v>
+        <v>340</v>
       </c>
       <c r="S46" s="1" t="s">
         <v>264</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="U46" s="1"/>
     </row>
     <row r="47">
       <c r="A47" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>340</v>
+        <v>148</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>131</v>
+        <v>343</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -3879,81 +3873,81 @@
     </row>
     <row r="48">
       <c r="A48" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>131</v>
+        <v>343</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>58</v>
+        <v>347</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>55</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="M48" s="1"/>
       <c r="N48" s="1" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q48" s="1"/>
       <c r="R48" s="1" t="s">
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>289</v>
+        <v>193</v>
       </c>
       <c r="T48" s="1" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="U48" s="1"/>
     </row>
     <row r="49">
       <c r="A49" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>350</v>
+        <v>295</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>58</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1" t="s">
@@ -3963,189 +3957,189 @@
         <v>55</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="M49" s="1"/>
       <c r="N49" s="1" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>289</v>
+        <v>193</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q49" s="1"/>
       <c r="R49" s="1" t="s">
-        <v>164</v>
+        <v>356</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="U49" s="1"/>
     </row>
     <row r="50">
       <c r="A50" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
         <v>87</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="M50" s="1"/>
       <c r="N50" s="1" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="O50" s="1" t="s">
         <v>264</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q50" s="1"/>
       <c r="R50" s="1" t="s">
-        <v>81</v>
+        <v>363</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="U50" s="1"/>
     </row>
     <row r="51">
       <c r="A51" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>55</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1" t="s">
-        <v>350</v>
+        <v>25</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>65</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="M51" s="1"/>
       <c r="N51" s="1" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>367</v>
+        <v>249</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q51" s="1"/>
       <c r="R51" s="1" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>369</v>
+        <v>233</v>
       </c>
       <c r="T51" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="U51" s="1"/>
     </row>
     <row r="52">
       <c r="A52" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>346</v>
+        <v>129</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M52" s="1"/>
       <c r="N52" s="1" t="s">
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q52" s="1"/>
       <c r="R52" s="1" t="s">
-        <v>375</v>
+        <v>196</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>213</v>
+        <v>82</v>
       </c>
       <c r="T52" s="1" t="s">
         <v>376</v>
@@ -4157,50 +4151,50 @@
         <v>377</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>350</v>
+        <v>295</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>378</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>55</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="I53" s="1"/>
       <c r="J53" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>379</v>
       </c>
       <c r="M53" s="1"/>
       <c r="N53" s="1" t="s">
-        <v>151</v>
+        <v>193</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>135</v>
+        <v>290</v>
       </c>
       <c r="P53" s="1" t="s">
         <v>376</v>
       </c>
       <c r="Q53" s="1"/>
       <c r="R53" s="1" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>375</v>
+        <v>248</v>
       </c>
       <c r="T53" s="1" t="s">
         <v>380</v>
@@ -4212,13 +4206,13 @@
         <v>381</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>151</v>
+        <v>382</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -4240,16 +4234,16 @@
     </row>
     <row r="55">
       <c r="A55" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -4271,13 +4265,13 @@
     </row>
     <row r="56">
       <c r="A56" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>386</v>
+        <v>264</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>387</v>
@@ -4305,13 +4299,13 @@
         <v>388</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>306</v>
+        <v>180</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>390</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -4333,16 +4327,16 @@
     </row>
     <row r="58">
       <c r="A58" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="C58" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>393</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -4364,16 +4358,16 @@
     </row>
     <row r="59">
       <c r="A59" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>395</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -4395,72 +4389,72 @@
     </row>
     <row r="60">
       <c r="A60" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="R60" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="S60" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="T60" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="U60" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -4485,7 +4479,7 @@
     </row>
     <row r="62">
       <c r="A62" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -4510,7 +4504,7 @@
     </row>
     <row r="63">
       <c r="A63" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -4535,7 +4529,7 @@
     </row>
     <row r="64">
       <c r="A64" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -4560,7 +4554,7 @@
     </row>
     <row r="65">
       <c r="A65" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -4585,7 +4579,7 @@
     </row>
     <row r="66">
       <c r="A66" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -4610,36 +4604,36 @@
     </row>
     <row r="67">
       <c r="A67" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="C67" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>406</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
-        <v>360</v>
+        <v>183</v>
       </c>
       <c r="G67" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="H67" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>407</v>
       </c>
       <c r="I67" s="1"/>
       <c r="J67" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>405</v>
+        <v>347</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
@@ -4653,7 +4647,7 @@
     </row>
     <row r="68">
       <c r="A68" s="9" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -4668,13 +4662,13 @@
       <c r="L68" s="4"/>
       <c r="M68" s="4"/>
       <c r="N68" s="4" t="s">
-        <v>34</v>
+        <v>275</v>
       </c>
       <c r="O68" s="4" t="s">
         <v>61</v>
       </c>
       <c r="P68" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>

--- a/Output/AllModelsFinal.xlsx
+++ b/Output/AllModelsFinal.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="355">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -80,489 +80,492 @@
     <t xml:space="preserve">Hurdle Intercept</t>
   </si>
   <si>
+    <t xml:space="preserve">0.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.61,  1.18]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.80%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conditional Within-Person Effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily persuasion experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.97,  1.08]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.24%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  1.00,   1.06]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.53%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.04, 0.05]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.54%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.85*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[   0.71,     0.99]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.97%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.69,   1.01]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.47%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily persuasion utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.98,  1.08]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90.16%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.99,   1.05]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.83%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.02, 0.07]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.80%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[   0.84,     1.24]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.38%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.85,   1.53]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.62%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily pressure experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.89*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.80,  0.98]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.71%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.88,   1.01]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.99%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.15, 0.07]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.90%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[   1.18,     2.69]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.38%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.03,   4.47]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.91%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily pressure utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.86,  1.03]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91.68%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.92,   1.05]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.66%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.14, 0.08]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.80%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[   0.70,     2.08]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.82%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.59,   4.18]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.24%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily pushing experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.96,  1.10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.93%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.98,   1.08]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90.00%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.04, 0.08]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.78%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[   0.96,     1.42]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94.52%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.01,   1.63]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.89%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily pushing utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.93,  1.05]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.65%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.97,   1.06]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77.40%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.08*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.01, 0.14]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.45%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[   0.71,     1.17]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.80%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.60,   1.31]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.50%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.89,  1.14]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.95%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.91,   1.04]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.37%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.26***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.15, 0.37]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[   0.77,     2.86]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.16%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.76,   3.51]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.82%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily weartime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  1.00,   1.00]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conditional Between-Person Effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean persuasion experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.74,  1.39]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.40%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.83,   1.47]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.59%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.20, 0.89]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.30%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[   0.41,     3.14]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.12%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.60,   6.84]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.26%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean persuasion utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.72,  1.35]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.95%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.73,   1.31]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.00%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.31, 0.78]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.91%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[   0.45,     4.35]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.27%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.52,   7.23]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.88%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean pressure experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.80,  1.64]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.54%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.39%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.86, 0.23]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.62%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[   1.18,    10.66]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.83%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.42**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2.39, 155.22]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.77%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean pressure utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.61,  1.29]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.45%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.72,   1.28]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.24%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.67%</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.18</t>
   </si>
   <si>
-    <t xml:space="preserve">[ 0.85,  1.63]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.80%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conditional Within-Person Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily persuasion experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.97,  1.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.24%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  1.00,   1.06]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.53%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.04, 0.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.54%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.85*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.71,     0.99]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.97%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.69,   1.01]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.47%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily persuasion utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.98,  1.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.16%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.99,   1.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88.83%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.02, 0.07]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.80%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.84,     1.24]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.38%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.85,   1.53]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.62%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily pressure experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.89*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.80,  0.98]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98.71%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.88,   1.01]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.99%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.15, 0.07]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.90%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   1.18,     2.69]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99.38%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.03,   4.47]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.91%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily pressure utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.86,  1.03]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91.68%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.92,   1.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.66%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.14, 0.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.80%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.70,     2.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.82%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.59,   4.18]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.24%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily pushing experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.96,  1.10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.93%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.98,   1.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.00%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.04, 0.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.78%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.96,     1.42]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94.52%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.01,   1.63]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.89%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily pushing utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.93,  1.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.65%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.97,   1.06]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77.40%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.08*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.01, 0.14]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98.45%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.71,     1.17]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.80%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.60,   1.31]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.50%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.89,  1.14]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.95%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.91,   1.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.37%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.26***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.15, 0.37]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.77,     2.86]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.16%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.76,   3.51]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89.82%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily weartime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  1.00,   1.00]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conditional Between-Person Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean persuasion experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.74,  1.39]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.40%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.83,   1.47]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.59%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.20, 0.89]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89.30%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.41,     3.14]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.12%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.60,   6.84]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.26%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean persuasion utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.72,  1.35]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.95%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.73,   1.31]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.00%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.31, 0.78]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.91%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.45,     4.35]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.27%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.52,   7.23]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.88%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean pressure experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.80,  1.64]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.54%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.39%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.86, 0.23]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.62%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   1.18,    10.66]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98.83%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.42**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[2.39, 155.22]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99.77%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean pressure utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.61,  1.29]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.45%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.72,   1.28]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.24%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.67%</t>
-  </si>
-  <si>
     <t xml:space="preserve">[   0.37,     3.58]</t>
   </si>
   <si>
@@ -680,28 +683,25 @@
     <t xml:space="preserve">Hu Daily persuasion experienced</t>
   </si>
   <si>
-    <t xml:space="preserve">0.65***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.57,  0.74]</t>
+    <t xml:space="preserve">1.53***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.36,  1.75]</t>
   </si>
   <si>
     <t xml:space="preserve">Hu Daily persuasion utilized (partner's view)</t>
   </si>
   <si>
-    <t xml:space="preserve">0.76***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.67,  0.84]</t>
+    <t xml:space="preserve">1.32***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.19,  1.50]</t>
   </si>
   <si>
     <t xml:space="preserve">Hu Daily pressure experienced</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.88,  1.72]</t>
+    <t xml:space="preserve">[ 0.58,  1.13]</t>
   </si>
   <si>
     <t xml:space="preserve">89.75%</t>
@@ -710,10 +710,10 @@
     <t xml:space="preserve">Hu Daily pressure utilized (partner's view)</t>
   </si>
   <si>
-    <t xml:space="preserve">0.68*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.43,  0.95]</t>
+    <t xml:space="preserve">1.47*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.05,  2.32]</t>
   </si>
   <si>
     <t xml:space="preserve">98.77%</t>
@@ -722,10 +722,10 @@
     <t xml:space="preserve">Hu Daily pushing experienced</t>
   </si>
   <si>
-    <t xml:space="preserve">0.58***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.41,  0.78]</t>
+    <t xml:space="preserve">1.71***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.27,  2.46]</t>
   </si>
   <si>
     <t xml:space="preserve">99.97%</t>
@@ -734,19 +734,16 @@
     <t xml:space="preserve">Hu Daily pushing utilized (partner's view)</t>
   </si>
   <si>
-    <t xml:space="preserve">0.55***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.41,  0.68]</t>
+    <t xml:space="preserve">1.83***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.46,  2.44]</t>
   </si>
   <si>
     <t xml:space="preserve">Hu Day</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.84,  1.41]</t>
+    <t xml:space="preserve">[ 0.71,  1.19]</t>
   </si>
   <si>
     <t xml:space="preserve">74.29%</t>
@@ -761,7 +758,10 @@
     <t xml:space="preserve">Hu Mean persuasion experienced</t>
   </si>
   <si>
-    <t xml:space="preserve">[ 0.38,  1.84]</t>
+    <t xml:space="preserve">1.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.54,  2.60]</t>
   </si>
   <si>
     <t xml:space="preserve">67.33%</t>
@@ -770,10 +770,7 @@
     <t xml:space="preserve">Hu Mean persuasion utilized (partner's view)</t>
   </si>
   <si>
-    <t xml:space="preserve">0.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.39,  1.87]</t>
+    <t xml:space="preserve">[ 0.53,  2.56]</t>
   </si>
   <si>
     <t xml:space="preserve">66.74%</t>
@@ -782,10 +779,10 @@
     <t xml:space="preserve">Hu Mean pressure experienced</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.36,  7.67]</t>
+    <t xml:space="preserve">0.31**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.13,  0.74]</t>
   </si>
   <si>
     <t xml:space="preserve">99.63%</t>
@@ -794,19 +791,19 @@
     <t xml:space="preserve">Hu Mean pressure utilized (partner's view)</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.74,  4.11]</t>
+    <t xml:space="preserve">0.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.24,  1.36]</t>
   </si>
   <si>
     <t xml:space="preserve">Hu Mean pushing experienced</t>
   </si>
   <si>
-    <t xml:space="preserve">0.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.12,  1.15]</t>
+    <t xml:space="preserve">2.70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.87,  8.16]</t>
   </si>
   <si>
     <t xml:space="preserve">95.77%</t>
@@ -815,10 +812,10 @@
     <t xml:space="preserve">Hu Mean pushing utilized (partner's view)</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.12,  1.13]</t>
+    <t xml:space="preserve">2.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.89,  8.46]</t>
   </si>
   <si>
     <t xml:space="preserve">96.16%</t>
@@ -1074,9 +1071,6 @@
   </si>
   <si>
     <t xml:space="preserve">[0.66, 0.71]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.57</t>
   </si>
   <si>
     <t xml:space="preserve">[0.56, 0.59]</t>
@@ -2292,139 +2286,139 @@
         <v>182</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>22</v>
+        <v>183</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>118</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>139</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N20" s="5" t="s">
         <v>105</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>131</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -2438,63 +2432,63 @@
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>14</v>
@@ -2514,13 +2508,13 @@
     </row>
     <row r="24">
       <c r="A24" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>14</v>
@@ -2540,10 +2534,10 @@
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>229</v>
@@ -2647,13 +2641,13 @@
         <v>242</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -2670,7 +2664,7 @@
     </row>
     <row r="30">
       <c r="A30" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2690,60 +2684,60 @@
     </row>
     <row r="31">
       <c r="A31" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>249</v>
@@ -2769,13 +2763,13 @@
         <v>251</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -2792,16 +2786,16 @@
     </row>
     <row r="34">
       <c r="A34" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="C34" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -2818,13 +2812,13 @@
     </row>
     <row r="35">
       <c r="A35" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>43</v>
@@ -2844,16 +2838,16 @@
     </row>
     <row r="36">
       <c r="A36" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -2870,16 +2864,16 @@
     </row>
     <row r="37">
       <c r="A37" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -2896,7 +2890,7 @@
     </row>
     <row r="38">
       <c r="A38" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2916,103 +2910,103 @@
     </row>
     <row r="39">
       <c r="A39" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>276</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="I40" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="L40" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="M40" s="1"/>
       <c r="N40" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="O40" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>282</v>
       </c>
       <c r="P40" s="1"/>
     </row>
     <row r="41">
       <c r="A41" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>111</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -3030,253 +3024,253 @@
     </row>
     <row r="42">
       <c r="A42" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I42" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>291</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="L42" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="M42" s="1"/>
       <c r="N42" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="O42" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="P42" s="1"/>
     </row>
     <row r="43">
       <c r="A43" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>300</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="I43" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>302</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="O43" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="P43" s="1"/>
     </row>
     <row r="44">
       <c r="A44" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>308</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="I44" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>308</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="L44" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>311</v>
       </c>
       <c r="M44" s="1"/>
       <c r="N44" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="O44" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>313</v>
       </c>
       <c r="P44" s="1"/>
     </row>
     <row r="45">
       <c r="A45" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="L45" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>319</v>
       </c>
       <c r="M45" s="1"/>
       <c r="N45" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="P45" s="1"/>
     </row>
     <row r="46">
       <c r="A46" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>323</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="L46" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="M46" s="1"/>
       <c r="N46" s="1" t="s">
         <v>152</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="P46" s="1"/>
     </row>
     <row r="47">
       <c r="A47" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>328</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>291</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M47" s="1"/>
       <c r="N47" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="O47" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>332</v>
       </c>
       <c r="P47" s="1"/>
     </row>
     <row r="48">
       <c r="A48" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>335</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -3294,13 +3288,13 @@
     </row>
     <row r="49">
       <c r="A49" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>338</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -3318,13 +3312,13 @@
     </row>
     <row r="50">
       <c r="A50" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -3342,13 +3336,13 @@
     </row>
     <row r="51">
       <c r="A51" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>343</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -3366,13 +3360,13 @@
     </row>
     <row r="52">
       <c r="A52" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -3390,13 +3384,13 @@
     </row>
     <row r="53">
       <c r="A53" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>349</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -3414,77 +3408,77 @@
     </row>
     <row r="54">
       <c r="A54" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="C55" s="4" t="s">
         <v>352</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>353</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4" t="s">
-        <v>354</v>
+        <v>259</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4" t="s">
         <v>179</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>

--- a/Output/AllModelsFinal.xlsx
+++ b/Output/AllModelsFinal.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="350">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -56,7 +56,7 @@
     <t xml:space="preserve">[42.23, 54.34]</t>
   </si>
   <si>
-    <t xml:space="preserve">100.00%</t>
+    <t xml:space="preserve">1.000</t>
   </si>
   <si>
     <t xml:space="preserve">117.27***</t>
@@ -86,7 +86,7 @@
     <t xml:space="preserve">[ 0.61,  1.18]</t>
   </si>
   <si>
-    <t xml:space="preserve">83.80%</t>
+    <t xml:space="preserve">0.838</t>
   </si>
   <si>
     <t xml:space="preserve">Conditional Within-Person Effects</t>
@@ -101,13 +101,13 @@
     <t xml:space="preserve">[ 0.97,  1.08]</t>
   </si>
   <si>
-    <t xml:space="preserve">83.24%</t>
+    <t xml:space="preserve">0.832</t>
   </si>
   <si>
     <t xml:space="preserve">[  1.00,   1.06]</t>
   </si>
   <si>
-    <t xml:space="preserve">96.53%</t>
+    <t xml:space="preserve">0.965</t>
   </si>
   <si>
     <t xml:space="preserve">0.00</t>
@@ -116,7 +116,7 @@
     <t xml:space="preserve">[-0.04, 0.05]</t>
   </si>
   <si>
-    <t xml:space="preserve">54.54%</t>
+    <t xml:space="preserve">0.545</t>
   </si>
   <si>
     <t xml:space="preserve">0.85*</t>
@@ -125,7 +125,7 @@
     <t xml:space="preserve">[   0.71,     0.99]</t>
   </si>
   <si>
-    <t xml:space="preserve">97.97%</t>
+    <t xml:space="preserve">0.980</t>
   </si>
   <si>
     <t xml:space="preserve">0.84</t>
@@ -134,16 +134,13 @@
     <t xml:space="preserve">[0.69,   1.01]</t>
   </si>
   <si>
-    <t xml:space="preserve">96.47%</t>
-  </si>
-  <si>
     <t xml:space="preserve">Daily persuasion utilized (partner's view)</t>
   </si>
   <si>
     <t xml:space="preserve">[ 0.98,  1.08]</t>
   </si>
   <si>
-    <t xml:space="preserve">90.16%</t>
+    <t xml:space="preserve">0.902</t>
   </si>
   <si>
     <t xml:space="preserve">1.02</t>
@@ -152,7 +149,7 @@
     <t xml:space="preserve">[  0.99,   1.05]</t>
   </si>
   <si>
-    <t xml:space="preserve">88.83%</t>
+    <t xml:space="preserve">0.888</t>
   </si>
   <si>
     <t xml:space="preserve">0.02</t>
@@ -161,13 +158,13 @@
     <t xml:space="preserve">[-0.02, 0.07]</t>
   </si>
   <si>
-    <t xml:space="preserve">82.80%</t>
+    <t xml:space="preserve">0.828</t>
   </si>
   <si>
     <t xml:space="preserve">[   0.84,     1.24]</t>
   </si>
   <si>
-    <t xml:space="preserve">60.38%</t>
+    <t xml:space="preserve">0.604</t>
   </si>
   <si>
     <t xml:space="preserve">1.12</t>
@@ -176,7 +173,7 @@
     <t xml:space="preserve">[0.85,   1.53]</t>
   </si>
   <si>
-    <t xml:space="preserve">78.62%</t>
+    <t xml:space="preserve">0.786</t>
   </si>
   <si>
     <t xml:space="preserve">Daily pressure experienced</t>
@@ -188,7 +185,7 @@
     <t xml:space="preserve">[ 0.80,  0.98]</t>
   </si>
   <si>
-    <t xml:space="preserve">98.71%</t>
+    <t xml:space="preserve">0.987</t>
   </si>
   <si>
     <t xml:space="preserve">0.94</t>
@@ -197,7 +194,7 @@
     <t xml:space="preserve">[  0.88,   1.01]</t>
   </si>
   <si>
-    <t xml:space="preserve">95.99%</t>
+    <t xml:space="preserve">0.960</t>
   </si>
   <si>
     <t xml:space="preserve">-0.04</t>
@@ -206,7 +203,7 @@
     <t xml:space="preserve">[-0.15, 0.07]</t>
   </si>
   <si>
-    <t xml:space="preserve">76.90%</t>
+    <t xml:space="preserve">0.769</t>
   </si>
   <si>
     <t xml:space="preserve">1.86*</t>
@@ -215,7 +212,7 @@
     <t xml:space="preserve">[   1.18,     2.69]</t>
   </si>
   <si>
-    <t xml:space="preserve">99.38%</t>
+    <t xml:space="preserve">0.994</t>
   </si>
   <si>
     <t xml:space="preserve">1.99*</t>
@@ -224,7 +221,7 @@
     <t xml:space="preserve">[1.03,   4.47]</t>
   </si>
   <si>
-    <t xml:space="preserve">97.91%</t>
+    <t xml:space="preserve">0.979</t>
   </si>
   <si>
     <t xml:space="preserve">Daily pressure utilized (partner's view)</t>
@@ -233,7 +230,7 @@
     <t xml:space="preserve">[ 0.86,  1.03]</t>
   </si>
   <si>
-    <t xml:space="preserve">91.68%</t>
+    <t xml:space="preserve">0.917</t>
   </si>
   <si>
     <t xml:space="preserve">0.98</t>
@@ -242,7 +239,7 @@
     <t xml:space="preserve">[  0.92,   1.05]</t>
   </si>
   <si>
-    <t xml:space="preserve">71.66%</t>
+    <t xml:space="preserve">0.717</t>
   </si>
   <si>
     <t xml:space="preserve">-0.02</t>
@@ -251,7 +248,7 @@
     <t xml:space="preserve">[-0.14, 0.08]</t>
   </si>
   <si>
-    <t xml:space="preserve">66.80%</t>
+    <t xml:space="preserve">0.668</t>
   </si>
   <si>
     <t xml:space="preserve">1.23</t>
@@ -260,7 +257,7 @@
     <t xml:space="preserve">[   0.70,     2.08]</t>
   </si>
   <si>
-    <t xml:space="preserve">80.82%</t>
+    <t xml:space="preserve">0.808</t>
   </si>
   <si>
     <t xml:space="preserve">1.41</t>
@@ -269,7 +266,7 @@
     <t xml:space="preserve">[0.59,   4.18]</t>
   </si>
   <si>
-    <t xml:space="preserve">80.24%</t>
+    <t xml:space="preserve">0.802</t>
   </si>
   <si>
     <t xml:space="preserve">Daily pushing experienced</t>
@@ -278,19 +275,16 @@
     <t xml:space="preserve">[ 0.96,  1.10]</t>
   </si>
   <si>
-    <t xml:space="preserve">76.93%</t>
-  </si>
-  <si>
     <t xml:space="preserve">[  0.98,   1.08]</t>
   </si>
   <si>
-    <t xml:space="preserve">90.00%</t>
+    <t xml:space="preserve">0.900</t>
   </si>
   <si>
     <t xml:space="preserve">[-0.04, 0.08]</t>
   </si>
   <si>
-    <t xml:space="preserve">75.78%</t>
+    <t xml:space="preserve">0.758</t>
   </si>
   <si>
     <t xml:space="preserve">1.16</t>
@@ -299,7 +293,7 @@
     <t xml:space="preserve">[   0.96,     1.42]</t>
   </si>
   <si>
-    <t xml:space="preserve">94.52%</t>
+    <t xml:space="preserve">0.945</t>
   </si>
   <si>
     <t xml:space="preserve">1.27*</t>
@@ -308,9 +302,6 @@
     <t xml:space="preserve">[1.01,   1.63]</t>
   </si>
   <si>
-    <t xml:space="preserve">97.89%</t>
-  </si>
-  <si>
     <t xml:space="preserve">Daily pushing utilized (partner's view)</t>
   </si>
   <si>
@@ -320,13 +311,13 @@
     <t xml:space="preserve">[ 0.93,  1.05]</t>
   </si>
   <si>
-    <t xml:space="preserve">63.65%</t>
+    <t xml:space="preserve">0.637</t>
   </si>
   <si>
     <t xml:space="preserve">[  0.97,   1.06]</t>
   </si>
   <si>
-    <t xml:space="preserve">77.40%</t>
+    <t xml:space="preserve">0.774</t>
   </si>
   <si>
     <t xml:space="preserve">0.08*</t>
@@ -335,7 +326,7 @@
     <t xml:space="preserve">[ 0.01, 0.14]</t>
   </si>
   <si>
-    <t xml:space="preserve">98.45%</t>
+    <t xml:space="preserve">0.985</t>
   </si>
   <si>
     <t xml:space="preserve">0.92</t>
@@ -344,7 +335,7 @@
     <t xml:space="preserve">[   0.71,     1.17]</t>
   </si>
   <si>
-    <t xml:space="preserve">76.80%</t>
+    <t xml:space="preserve">0.768</t>
   </si>
   <si>
     <t xml:space="preserve">0.89</t>
@@ -353,7 +344,7 @@
     <t xml:space="preserve">[0.60,   1.31]</t>
   </si>
   <si>
-    <t xml:space="preserve">73.50%</t>
+    <t xml:space="preserve">0.735</t>
   </si>
   <si>
     <t xml:space="preserve">Day</t>
@@ -365,7 +356,7 @@
     <t xml:space="preserve">[ 0.89,  1.14]</t>
   </si>
   <si>
-    <t xml:space="preserve">54.95%</t>
+    <t xml:space="preserve">0.549</t>
   </si>
   <si>
     <t xml:space="preserve">0.97</t>
@@ -374,7 +365,7 @@
     <t xml:space="preserve">[  0.91,   1.04]</t>
   </si>
   <si>
-    <t xml:space="preserve">78.37%</t>
+    <t xml:space="preserve">0.784</t>
   </si>
   <si>
     <t xml:space="preserve">0.26***</t>
@@ -389,7 +380,7 @@
     <t xml:space="preserve">[   0.77,     2.86]</t>
   </si>
   <si>
-    <t xml:space="preserve">87.16%</t>
+    <t xml:space="preserve">0.872</t>
   </si>
   <si>
     <t xml:space="preserve">1.64</t>
@@ -398,7 +389,7 @@
     <t xml:space="preserve">[0.76,   3.51]</t>
   </si>
   <si>
-    <t xml:space="preserve">89.82%</t>
+    <t xml:space="preserve">0.898</t>
   </si>
   <si>
     <t xml:space="preserve">Daily weartime</t>
@@ -419,7 +410,7 @@
     <t xml:space="preserve">[ 0.74,  1.39]</t>
   </si>
   <si>
-    <t xml:space="preserve">53.40%</t>
+    <t xml:space="preserve">0.534</t>
   </si>
   <si>
     <t xml:space="preserve">1.10</t>
@@ -428,7 +419,7 @@
     <t xml:space="preserve">[  0.83,   1.47]</t>
   </si>
   <si>
-    <t xml:space="preserve">75.59%</t>
+    <t xml:space="preserve">0.756</t>
   </si>
   <si>
     <t xml:space="preserve">0.35</t>
@@ -437,13 +428,13 @@
     <t xml:space="preserve">[-0.20, 0.89]</t>
   </si>
   <si>
-    <t xml:space="preserve">89.30%</t>
+    <t xml:space="preserve">0.893</t>
   </si>
   <si>
     <t xml:space="preserve">[   0.41,     3.14]</t>
   </si>
   <si>
-    <t xml:space="preserve">59.12%</t>
+    <t xml:space="preserve">0.591</t>
   </si>
   <si>
     <t xml:space="preserve">1.99</t>
@@ -452,7 +443,7 @@
     <t xml:space="preserve">[0.60,   6.84]</t>
   </si>
   <si>
-    <t xml:space="preserve">87.26%</t>
+    <t xml:space="preserve">0.873</t>
   </si>
   <si>
     <t xml:space="preserve">Mean persuasion utilized (partner's view)</t>
@@ -461,13 +452,13 @@
     <t xml:space="preserve">[ 0.72,  1.35]</t>
   </si>
   <si>
-    <t xml:space="preserve">53.95%</t>
+    <t xml:space="preserve">0.539</t>
   </si>
   <si>
     <t xml:space="preserve">[  0.73,   1.31]</t>
   </si>
   <si>
-    <t xml:space="preserve">55.00%</t>
+    <t xml:space="preserve">0.550</t>
   </si>
   <si>
     <t xml:space="preserve">0.23</t>
@@ -476,7 +467,7 @@
     <t xml:space="preserve">[-0.31, 0.78]</t>
   </si>
   <si>
-    <t xml:space="preserve">79.91%</t>
+    <t xml:space="preserve">0.799</t>
   </si>
   <si>
     <t xml:space="preserve">1.38</t>
@@ -485,7 +476,7 @@
     <t xml:space="preserve">[   0.45,     4.35]</t>
   </si>
   <si>
-    <t xml:space="preserve">71.27%</t>
+    <t xml:space="preserve">0.713</t>
   </si>
   <si>
     <t xml:space="preserve">1.88</t>
@@ -494,7 +485,7 @@
     <t xml:space="preserve">[0.52,   7.23]</t>
   </si>
   <si>
-    <t xml:space="preserve">82.88%</t>
+    <t xml:space="preserve">0.829</t>
   </si>
   <si>
     <t xml:space="preserve">Mean pressure experienced</t>
@@ -506,10 +497,10 @@
     <t xml:space="preserve">[ 0.80,  1.64]</t>
   </si>
   <si>
-    <t xml:space="preserve">76.54%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.39%</t>
+    <t xml:space="preserve">0.765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.564</t>
   </si>
   <si>
     <t xml:space="preserve">-0.32</t>
@@ -518,7 +509,7 @@
     <t xml:space="preserve">[-0.86, 0.23]</t>
   </si>
   <si>
-    <t xml:space="preserve">87.62%</t>
+    <t xml:space="preserve">0.876</t>
   </si>
   <si>
     <t xml:space="preserve">3.48*</t>
@@ -527,7 +518,7 @@
     <t xml:space="preserve">[   1.18,    10.66]</t>
   </si>
   <si>
-    <t xml:space="preserve">98.83%</t>
+    <t xml:space="preserve">0.988</t>
   </si>
   <si>
     <t xml:space="preserve">17.42**</t>
@@ -536,7 +527,7 @@
     <t xml:space="preserve">[2.39, 155.22]</t>
   </si>
   <si>
-    <t xml:space="preserve">99.77%</t>
+    <t xml:space="preserve">0.998</t>
   </si>
   <si>
     <t xml:space="preserve">Mean pressure utilized (partner's view)</t>
@@ -548,7 +539,7 @@
     <t xml:space="preserve">[ 0.61,  1.29]</t>
   </si>
   <si>
-    <t xml:space="preserve">74.45%</t>
+    <t xml:space="preserve">0.745</t>
   </si>
   <si>
     <t xml:space="preserve">0.96</t>
@@ -557,10 +548,10 @@
     <t xml:space="preserve">[  0.72,   1.28]</t>
   </si>
   <si>
-    <t xml:space="preserve">60.24%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.67%</t>
+    <t xml:space="preserve">0.602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.877</t>
   </si>
   <si>
     <t xml:space="preserve">1.18</t>
@@ -569,7 +560,7 @@
     <t xml:space="preserve">[   0.37,     3.58]</t>
   </si>
   <si>
-    <t xml:space="preserve">61.23%</t>
+    <t xml:space="preserve">0.612</t>
   </si>
   <si>
     <t xml:space="preserve">2.32</t>
@@ -578,7 +569,7 @@
     <t xml:space="preserve">[0.25,  19.47]</t>
   </si>
   <si>
-    <t xml:space="preserve">77.24%</t>
+    <t xml:space="preserve">0.772</t>
   </si>
   <si>
     <t xml:space="preserve">Mean pushing experienced</t>
@@ -590,13 +581,13 @@
     <t xml:space="preserve">[ 0.84,  2.09]</t>
   </si>
   <si>
-    <t xml:space="preserve">88.55%</t>
+    <t xml:space="preserve">0.886</t>
   </si>
   <si>
     <t xml:space="preserve">[  0.64,   1.47]</t>
   </si>
   <si>
-    <t xml:space="preserve">56.15%</t>
+    <t xml:space="preserve">0.561</t>
   </si>
   <si>
     <t xml:space="preserve">0.22</t>
@@ -605,7 +596,7 @@
     <t xml:space="preserve">[-0.55, 1.01]</t>
   </si>
   <si>
-    <t xml:space="preserve">71.39%</t>
+    <t xml:space="preserve">0.714</t>
   </si>
   <si>
     <t xml:space="preserve">1.20</t>
@@ -614,7 +605,7 @@
     <t xml:space="preserve">[   0.28,     5.59]</t>
   </si>
   <si>
-    <t xml:space="preserve">59.92%</t>
+    <t xml:space="preserve">0.599</t>
   </si>
   <si>
     <t xml:space="preserve">0.82</t>
@@ -623,7 +614,7 @@
     <t xml:space="preserve">[0.12,   6.10]</t>
   </si>
   <si>
-    <t xml:space="preserve">58.04%</t>
+    <t xml:space="preserve">0.580</t>
   </si>
   <si>
     <t xml:space="preserve">Mean pushing utilized (partner's view)</t>
@@ -635,7 +626,7 @@
     <t xml:space="preserve">[ 0.88,  2.24]</t>
   </si>
   <si>
-    <t xml:space="preserve">92.27%</t>
+    <t xml:space="preserve">0.923</t>
   </si>
   <si>
     <t xml:space="preserve">1.24</t>
@@ -644,13 +635,13 @@
     <t xml:space="preserve">[  0.83,   1.88]</t>
   </si>
   <si>
-    <t xml:space="preserve">85.86%</t>
+    <t xml:space="preserve">0.859</t>
   </si>
   <si>
     <t xml:space="preserve">[-0.41, 1.14]</t>
   </si>
   <si>
-    <t xml:space="preserve">82.26%</t>
+    <t xml:space="preserve">0.823</t>
   </si>
   <si>
     <t xml:space="preserve">0.11*</t>
@@ -659,13 +650,13 @@
     <t xml:space="preserve">[   0.02,     0.64]</t>
   </si>
   <si>
-    <t xml:space="preserve">99.30%</t>
+    <t xml:space="preserve">0.993</t>
   </si>
   <si>
     <t xml:space="preserve">[0.01,   0.65]</t>
   </si>
   <si>
-    <t xml:space="preserve">99.01%</t>
+    <t xml:space="preserve">0.990</t>
   </si>
   <si>
     <t xml:space="preserve">Mean weartime</t>
@@ -674,7 +665,7 @@
     <t xml:space="preserve">1.00</t>
   </si>
   <si>
-    <t xml:space="preserve">91.16%</t>
+    <t xml:space="preserve">0.912</t>
   </si>
   <si>
     <t xml:space="preserve">Hurdle Within-Person Effects</t>
@@ -704,7 +695,7 @@
     <t xml:space="preserve">[ 0.58,  1.13]</t>
   </si>
   <si>
-    <t xml:space="preserve">89.75%</t>
+    <t xml:space="preserve">0.897</t>
   </si>
   <si>
     <t xml:space="preserve">Hu Daily pressure utilized (partner's view)</t>
@@ -716,9 +707,6 @@
     <t xml:space="preserve">[ 1.05,  2.32]</t>
   </si>
   <si>
-    <t xml:space="preserve">98.77%</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hu Daily pushing experienced</t>
   </si>
   <si>
@@ -728,9 +716,6 @@
     <t xml:space="preserve">[ 1.27,  2.46]</t>
   </si>
   <si>
-    <t xml:space="preserve">99.97%</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hu Daily pushing utilized (partner's view)</t>
   </si>
   <si>
@@ -746,7 +731,7 @@
     <t xml:space="preserve">[ 0.71,  1.19]</t>
   </si>
   <si>
-    <t xml:space="preserve">74.29%</t>
+    <t xml:space="preserve">0.743</t>
   </si>
   <si>
     <t xml:space="preserve">Hu Daily weartime</t>
@@ -764,7 +749,7 @@
     <t xml:space="preserve">[ 0.54,  2.60]</t>
   </si>
   <si>
-    <t xml:space="preserve">67.33%</t>
+    <t xml:space="preserve">0.673</t>
   </si>
   <si>
     <t xml:space="preserve">Hu Mean persuasion utilized (partner's view)</t>
@@ -773,7 +758,7 @@
     <t xml:space="preserve">[ 0.53,  2.56]</t>
   </si>
   <si>
-    <t xml:space="preserve">66.74%</t>
+    <t xml:space="preserve">0.667</t>
   </si>
   <si>
     <t xml:space="preserve">Hu Mean pressure experienced</t>
@@ -785,7 +770,7 @@
     <t xml:space="preserve">[ 0.13,  0.74]</t>
   </si>
   <si>
-    <t xml:space="preserve">99.63%</t>
+    <t xml:space="preserve">0.996</t>
   </si>
   <si>
     <t xml:space="preserve">Hu Mean pressure utilized (partner's view)</t>
@@ -806,7 +791,7 @@
     <t xml:space="preserve">[ 0.87,  8.16]</t>
   </si>
   <si>
-    <t xml:space="preserve">95.77%</t>
+    <t xml:space="preserve">0.958</t>
   </si>
   <si>
     <t xml:space="preserve">Hu Mean pushing utilized (partner's view)</t>
@@ -818,7 +803,7 @@
     <t xml:space="preserve">[ 0.89,  8.46]</t>
   </si>
   <si>
-    <t xml:space="preserve">96.16%</t>
+    <t xml:space="preserve">0.962</t>
   </si>
   <si>
     <t xml:space="preserve">Hu Mean weartime</t>
@@ -1725,321 +1710,321 @@
         <v>39</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="L7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="L8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="O8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="N10" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="N10" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="P10" s="1" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="H11" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="K11" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="O11" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="P11" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="H12" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K12" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N12" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="O12" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="P12" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>14</v>
@@ -2056,369 +2041,369 @@
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="K15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L15" s="1" t="s">
+      <c r="O15" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="P15" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="O16" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="P16" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="E17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="K17" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="L17" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="M17" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="N17" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="O17" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="P17" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="H18" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J18" s="1" t="s">
+      <c r="M18" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="N18" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="O18" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="P18" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="E19" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="L19" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="M19" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="N19" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="O19" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="P19" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="H20" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="K20" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I20" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="M20" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="K20" s="5" t="s">
+      <c r="N20" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="O20" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="P20" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="N20" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -2432,63 +2417,63 @@
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="8" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>14</v>
@@ -2508,13 +2493,13 @@
     </row>
     <row r="24">
       <c r="A24" s="8" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>14</v>
@@ -2534,16 +2519,16 @@
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -2560,16 +2545,16 @@
     </row>
     <row r="26">
       <c r="A26" s="8" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>234</v>
+        <v>168</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -2586,16 +2571,16 @@
     </row>
     <row r="27">
       <c r="A27" s="8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -2612,13 +2597,13 @@
     </row>
     <row r="28">
       <c r="A28" s="8" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>14</v>
@@ -2638,16 +2623,16 @@
     </row>
     <row r="29">
       <c r="A29" s="8" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -2664,7 +2649,7 @@
     </row>
     <row r="30">
       <c r="A30" s="8" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2684,66 +2669,66 @@
     </row>
     <row r="31">
       <c r="A31" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="8" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -2760,16 +2745,16 @@
     </row>
     <row r="33">
       <c r="A33" s="8" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -2786,16 +2771,16 @@
     </row>
     <row r="34">
       <c r="A34" s="8" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -2812,16 +2797,16 @@
     </row>
     <row r="35">
       <c r="A35" s="8" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -2838,16 +2823,16 @@
     </row>
     <row r="36">
       <c r="A36" s="8" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -2864,16 +2849,16 @@
     </row>
     <row r="37">
       <c r="A37" s="8" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -2890,7 +2875,7 @@
     </row>
     <row r="38">
       <c r="A38" s="8" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2910,103 +2895,103 @@
     </row>
     <row r="39">
       <c r="A39" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="8" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="M40" s="1"/>
       <c r="N40" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="P40" s="1"/>
     </row>
     <row r="41">
       <c r="A41" s="8" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -3024,253 +3009,253 @@
     </row>
     <row r="42">
       <c r="A42" s="8" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="M42" s="1"/>
       <c r="N42" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="P42" s="1"/>
     </row>
     <row r="43">
       <c r="A43" s="8" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="P43" s="1"/>
     </row>
     <row r="44">
       <c r="A44" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="M44" s="1"/>
       <c r="N44" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="P44" s="1"/>
     </row>
     <row r="45">
       <c r="A45" s="8" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="M45" s="1"/>
       <c r="N45" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="P45" s="1"/>
     </row>
     <row r="46">
       <c r="A46" s="8" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="M46" s="1"/>
       <c r="N46" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="P46" s="1"/>
     </row>
     <row r="47">
       <c r="A47" s="8" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="M47" s="1"/>
       <c r="N47" s="1" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="P47" s="1"/>
     </row>
     <row r="48">
       <c r="A48" s="8" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -3288,13 +3273,13 @@
     </row>
     <row r="49">
       <c r="A49" s="8" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -3312,13 +3297,13 @@
     </row>
     <row r="50">
       <c r="A50" s="8" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -3336,13 +3321,13 @@
     </row>
     <row r="51">
       <c r="A51" s="8" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -3360,13 +3345,13 @@
     </row>
     <row r="52">
       <c r="A52" s="8" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -3384,13 +3369,13 @@
     </row>
     <row r="53">
       <c r="A53" s="8" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -3408,77 +3393,77 @@
     </row>
     <row r="54">
       <c r="A54" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="9" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>

--- a/Output/AllModelsFinal.xlsx
+++ b/Output/AllModelsFinal.xlsx
@@ -1,1075 +1,1082 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kueng\DataAnalysis\02TimeAndTiesControl_updatedBRMS\Output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407F1D24-209A-407C-A0B7-FD9CA6C33F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-19303" yWindow="3369" windowWidth="19406" windowHeight="11485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="350">
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Subjective MVPA Hurdle Lognormal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Device-Based MVPA Log (Gaussian)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mood Gaussian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reactance Ordinal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reactance Dichotome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp(Est.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95% CI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Est.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intercept</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.95***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[42.23, 54.34]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117.27***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[105.41, 130.66]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 3.50, 3.91]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.29***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.16,   0.50]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hurdle Intercept</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.61,  1.18]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conditional Within-Person Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily persuasion experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.97,  1.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  1.00,   1.06]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.04, 0.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.85*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.71,     0.99]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.980</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.69,   1.01]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily persuasion utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.98,  1.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.99,   1.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.02, 0.07]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.84,     1.24]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.85,   1.53]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily pressure experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.89*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.80,  0.98]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.88,   1.01]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.15, 0.07]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   1.18,     2.69]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.03,   4.47]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily pressure utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.86,  1.03]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.92,   1.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.14, 0.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.70,     2.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.59,   4.18]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily pushing experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.96,  1.10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.98,   1.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.04, 0.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.96,     1.42]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.01,   1.63]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily pushing utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.93,  1.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.97,   1.06]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.08*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.01, 0.14]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.71,     1.17]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.60,   1.31]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.89,  1.14]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.91,   1.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.26***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.15, 0.37]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.77,     2.86]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.76,   3.51]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily weartime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  1.00,   1.00]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conditional Between-Person Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean persuasion experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.74,  1.39]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.83,   1.47]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.20, 0.89]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.41,     3.14]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.60,   6.84]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean persuasion utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.72,  1.35]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.73,   1.31]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.550</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.31, 0.78]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.45,     4.35]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.52,   7.23]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean pressure experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.80,  1.64]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.86, 0.23]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   1.18,    10.66]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.42**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[2.39, 155.22]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean pressure utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.61,  1.29]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.72,   1.28]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.37,     3.58]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.25,  19.47]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean pushing experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.84,  2.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.64,   1.47]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.55, 1.01]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.28,     5.59]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.12,   6.10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.580</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean pushing utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.88,  2.24]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.83,   1.88]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.41, 1.14]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.02,     0.64]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01,   0.65]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean weartime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hurdle Within-Person Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily persuasion experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.36,  1.75]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily persuasion utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.19,  1.50]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily pressure experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.58,  1.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily pressure utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.05,  2.32]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily pushing experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.27,  2.46]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily pushing utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.46,  2.44]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.71,  1.19]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily weartime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hurdle Between-Person Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean persuasion experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.54,  2.60]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean persuasion utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.53,  2.56]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean pressure experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.31**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.13,  0.74]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean pressure utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.24,  1.36]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean pushing experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.87,  8.16]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean pushing utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.89,  8.46]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean weartime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Random Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Intercept)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.24, 0.42]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.24, 0.40]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.48, 0.78]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.48, 1.26]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.74, 1.74]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Hurdle Intercept)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.69, 1.18]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily persuasion experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.08, 0.17]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.42]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.51]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily persuasion utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.05, 0.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.03, 0.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.12, 0.97]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily pressure experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.24]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.10, 1.14]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.14, 2.41]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily pressure utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.18]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.26]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 1.55]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.04, 2.73]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily pushing experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.04, 0.19]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.14]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.59]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily pushing utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.17]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.17]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.93]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Hu Daily persuasion experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.34]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Hu Daily persuasion utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.33]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Hu Daily pressure experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.85]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Hu Daily pressure utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 1.00]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Hu Daily pushing experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.32, 1.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Hu Daily pushing utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.04, 0.64]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Additional Parameters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sigma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.66, 0.71]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.56, 0.59]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.94, 0.98]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="350">
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Subjective MVPA Hurdle Lognormal</t>
+  </si>
+  <si>
+    <t>Device-Based MVPA Log (Gaussian)</t>
+  </si>
+  <si>
+    <t>Mood Gaussian</t>
+  </si>
+  <si>
+    <t>Reactance Ordinal</t>
+  </si>
+  <si>
+    <t>Reactance Dichotome</t>
+  </si>
+  <si>
+    <t>exp(Est.)</t>
+  </si>
+  <si>
+    <t>95% CI</t>
+  </si>
+  <si>
+    <t>pd</t>
+  </si>
+  <si>
+    <t>Est.</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>47.95***</t>
+  </si>
+  <si>
+    <t>[42.23, 54.34]</t>
+  </si>
+  <si>
+    <t>1.000</t>
+  </si>
+  <si>
+    <t>117.27***</t>
+  </si>
+  <si>
+    <t>[105.41, 130.66]</t>
+  </si>
+  <si>
+    <t>3.70***</t>
+  </si>
+  <si>
+    <t>[ 3.50, 3.91]</t>
+  </si>
+  <si>
+    <t>0.29***</t>
+  </si>
+  <si>
+    <t>[0.16,   0.50]</t>
+  </si>
+  <si>
+    <t>Hurdle Intercept</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>[ 0.61,  1.18]</t>
+  </si>
+  <si>
+    <t>0.838</t>
+  </si>
+  <si>
+    <t>Conditional Within-Person Effects</t>
+  </si>
+  <si>
+    <t>Daily persuasion experienced</t>
+  </si>
+  <si>
+    <t>1.03</t>
+  </si>
+  <si>
+    <t>[ 0.97,  1.08]</t>
+  </si>
+  <si>
+    <t>0.832</t>
+  </si>
+  <si>
+    <t>[  1.00,   1.06]</t>
+  </si>
+  <si>
+    <t>0.965</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>[-0.04, 0.05]</t>
+  </si>
+  <si>
+    <t>0.545</t>
+  </si>
+  <si>
+    <t>0.85*</t>
+  </si>
+  <si>
+    <t>[   0.71,     0.99]</t>
+  </si>
+  <si>
+    <t>0.980</t>
+  </si>
+  <si>
+    <t>0.84</t>
+  </si>
+  <si>
+    <t>[0.69,   1.01]</t>
+  </si>
+  <si>
+    <t>Daily persuasion utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>[ 0.98,  1.08]</t>
+  </si>
+  <si>
+    <t>0.902</t>
+  </si>
+  <si>
+    <t>1.02</t>
+  </si>
+  <si>
+    <t>[  0.99,   1.05]</t>
+  </si>
+  <si>
+    <t>0.888</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>[-0.02, 0.07]</t>
+  </si>
+  <si>
+    <t>0.828</t>
+  </si>
+  <si>
+    <t>[   0.84,     1.24]</t>
+  </si>
+  <si>
+    <t>0.604</t>
+  </si>
+  <si>
+    <t>1.12</t>
+  </si>
+  <si>
+    <t>[0.85,   1.53]</t>
+  </si>
+  <si>
+    <t>0.786</t>
+  </si>
+  <si>
+    <t>Daily pressure experienced</t>
+  </si>
+  <si>
+    <t>0.89*</t>
+  </si>
+  <si>
+    <t>[ 0.80,  0.98]</t>
+  </si>
+  <si>
+    <t>0.987</t>
+  </si>
+  <si>
+    <t>0.94</t>
+  </si>
+  <si>
+    <t>[  0.88,   1.01]</t>
+  </si>
+  <si>
+    <t>0.960</t>
+  </si>
+  <si>
+    <t>-0.04</t>
+  </si>
+  <si>
+    <t>[-0.15, 0.07]</t>
+  </si>
+  <si>
+    <t>0.769</t>
+  </si>
+  <si>
+    <t>1.86*</t>
+  </si>
+  <si>
+    <t>[   1.18,     2.69]</t>
+  </si>
+  <si>
+    <t>0.994</t>
+  </si>
+  <si>
+    <t>1.99*</t>
+  </si>
+  <si>
+    <t>[1.03,   4.47]</t>
+  </si>
+  <si>
+    <t>0.979</t>
+  </si>
+  <si>
+    <t>Daily pressure utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>[ 0.86,  1.03]</t>
+  </si>
+  <si>
+    <t>0.917</t>
+  </si>
+  <si>
+    <t>0.98</t>
+  </si>
+  <si>
+    <t>[  0.92,   1.05]</t>
+  </si>
+  <si>
+    <t>0.717</t>
+  </si>
+  <si>
+    <t>-0.02</t>
+  </si>
+  <si>
+    <t>[-0.14, 0.08]</t>
+  </si>
+  <si>
+    <t>0.668</t>
+  </si>
+  <si>
+    <t>1.23</t>
+  </si>
+  <si>
+    <t>[   0.70,     2.08]</t>
+  </si>
+  <si>
+    <t>0.808</t>
+  </si>
+  <si>
+    <t>1.41</t>
+  </si>
+  <si>
+    <t>[0.59,   4.18]</t>
+  </si>
+  <si>
+    <t>0.802</t>
+  </si>
+  <si>
+    <t>Daily pushing experienced</t>
+  </si>
+  <si>
+    <t>[ 0.96,  1.10]</t>
+  </si>
+  <si>
+    <t>[  0.98,   1.08]</t>
+  </si>
+  <si>
+    <t>0.900</t>
+  </si>
+  <si>
+    <t>[-0.04, 0.08]</t>
+  </si>
+  <si>
+    <t>0.758</t>
+  </si>
+  <si>
+    <t>1.16</t>
+  </si>
+  <si>
+    <t>[   0.96,     1.42]</t>
+  </si>
+  <si>
+    <t>0.945</t>
+  </si>
+  <si>
+    <t>1.27*</t>
+  </si>
+  <si>
+    <t>[1.01,   1.63]</t>
+  </si>
+  <si>
+    <t>Daily pushing utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>0.99</t>
+  </si>
+  <si>
+    <t>[ 0.93,  1.05]</t>
+  </si>
+  <si>
+    <t>0.637</t>
+  </si>
+  <si>
+    <t>[  0.97,   1.06]</t>
+  </si>
+  <si>
+    <t>0.774</t>
+  </si>
+  <si>
+    <t>0.08*</t>
+  </si>
+  <si>
+    <t>[ 0.01, 0.14]</t>
+  </si>
+  <si>
+    <t>0.985</t>
+  </si>
+  <si>
+    <t>0.92</t>
+  </si>
+  <si>
+    <t>[   0.71,     1.17]</t>
+  </si>
+  <si>
+    <t>0.768</t>
+  </si>
+  <si>
+    <t>0.89</t>
+  </si>
+  <si>
+    <t>[0.60,   1.31]</t>
+  </si>
+  <si>
+    <t>0.735</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>1.01</t>
+  </si>
+  <si>
+    <t>[ 0.89,  1.14]</t>
+  </si>
+  <si>
+    <t>0.549</t>
+  </si>
+  <si>
+    <t>0.97</t>
+  </si>
+  <si>
+    <t>[  0.91,   1.04]</t>
+  </si>
+  <si>
+    <t>0.784</t>
+  </si>
+  <si>
+    <t>0.26***</t>
+  </si>
+  <si>
+    <t>[ 0.15, 0.37]</t>
+  </si>
+  <si>
+    <t>1.47</t>
+  </si>
+  <si>
+    <t>[   0.77,     2.86]</t>
+  </si>
+  <si>
+    <t>0.872</t>
+  </si>
+  <si>
+    <t>1.64</t>
+  </si>
+  <si>
+    <t>[0.76,   3.51]</t>
+  </si>
+  <si>
+    <t>0.898</t>
+  </si>
+  <si>
+    <t>Daily weartime</t>
+  </si>
+  <si>
+    <t>1.00***</t>
+  </si>
+  <si>
+    <t>[  1.00,   1.00]</t>
+  </si>
+  <si>
+    <t>Conditional Between-Person Effects</t>
+  </si>
+  <si>
+    <t>Mean persuasion experienced</t>
+  </si>
+  <si>
+    <t>[ 0.74,  1.39]</t>
+  </si>
+  <si>
+    <t>0.534</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>[  0.83,   1.47]</t>
+  </si>
+  <si>
+    <t>0.756</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>[-0.20, 0.89]</t>
+  </si>
+  <si>
+    <t>0.893</t>
+  </si>
+  <si>
+    <t>[   0.41,     3.14]</t>
+  </si>
+  <si>
+    <t>0.591</t>
+  </si>
+  <si>
+    <t>1.99</t>
+  </si>
+  <si>
+    <t>[0.60,   6.84]</t>
+  </si>
+  <si>
+    <t>0.873</t>
+  </si>
+  <si>
+    <t>Mean persuasion utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>[ 0.72,  1.35]</t>
+  </si>
+  <si>
+    <t>0.539</t>
+  </si>
+  <si>
+    <t>[  0.73,   1.31]</t>
+  </si>
+  <si>
+    <t>0.550</t>
+  </si>
+  <si>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>[-0.31, 0.78]</t>
+  </si>
+  <si>
+    <t>0.799</t>
+  </si>
+  <si>
+    <t>1.38</t>
+  </si>
+  <si>
+    <t>[   0.45,     4.35]</t>
+  </si>
+  <si>
+    <t>0.713</t>
+  </si>
+  <si>
+    <t>1.88</t>
+  </si>
+  <si>
+    <t>[0.52,   7.23]</t>
+  </si>
+  <si>
+    <t>0.829</t>
+  </si>
+  <si>
+    <t>Mean pressure experienced</t>
+  </si>
+  <si>
+    <t>1.14</t>
+  </si>
+  <si>
+    <t>[ 0.80,  1.64]</t>
+  </si>
+  <si>
+    <t>0.765</t>
+  </si>
+  <si>
+    <t>0.564</t>
+  </si>
+  <si>
+    <t>-0.32</t>
+  </si>
+  <si>
+    <t>[-0.86, 0.23]</t>
+  </si>
+  <si>
+    <t>0.876</t>
+  </si>
+  <si>
+    <t>3.48*</t>
+  </si>
+  <si>
+    <t>[   1.18,    10.66]</t>
+  </si>
+  <si>
+    <t>0.988</t>
+  </si>
+  <si>
+    <t>17.42**</t>
+  </si>
+  <si>
+    <t>[2.39, 155.22]</t>
+  </si>
+  <si>
+    <t>0.998</t>
+  </si>
+  <si>
+    <t>Mean pressure utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>0.88</t>
+  </si>
+  <si>
+    <t>[ 0.61,  1.29]</t>
+  </si>
+  <si>
+    <t>0.745</t>
+  </si>
+  <si>
+    <t>0.96</t>
+  </si>
+  <si>
+    <t>[  0.72,   1.28]</t>
+  </si>
+  <si>
+    <t>0.602</t>
+  </si>
+  <si>
+    <t>0.877</t>
+  </si>
+  <si>
+    <t>1.18</t>
+  </si>
+  <si>
+    <t>[   0.37,     3.58]</t>
+  </si>
+  <si>
+    <t>0.612</t>
+  </si>
+  <si>
+    <t>2.32</t>
+  </si>
+  <si>
+    <t>[0.25,  19.47]</t>
+  </si>
+  <si>
+    <t>0.772</t>
+  </si>
+  <si>
+    <t>Mean pushing experienced</t>
+  </si>
+  <si>
+    <t>1.33</t>
+  </si>
+  <si>
+    <t>[ 0.84,  2.09]</t>
+  </si>
+  <si>
+    <t>0.886</t>
+  </si>
+  <si>
+    <t>[  0.64,   1.47]</t>
+  </si>
+  <si>
+    <t>0.561</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>[-0.55, 1.01]</t>
+  </si>
+  <si>
+    <t>0.714</t>
+  </si>
+  <si>
+    <t>1.20</t>
+  </si>
+  <si>
+    <t>[   0.28,     5.59]</t>
+  </si>
+  <si>
+    <t>0.599</t>
+  </si>
+  <si>
+    <t>0.82</t>
+  </si>
+  <si>
+    <t>[0.12,   6.10]</t>
+  </si>
+  <si>
+    <t>0.580</t>
+  </si>
+  <si>
+    <t>Mean pushing utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>1.40</t>
+  </si>
+  <si>
+    <t>[ 0.88,  2.24]</t>
+  </si>
+  <si>
+    <t>0.923</t>
+  </si>
+  <si>
+    <t>1.24</t>
+  </si>
+  <si>
+    <t>[  0.83,   1.88]</t>
+  </si>
+  <si>
+    <t>0.859</t>
+  </si>
+  <si>
+    <t>[-0.41, 1.14]</t>
+  </si>
+  <si>
+    <t>0.823</t>
+  </si>
+  <si>
+    <t>0.11*</t>
+  </si>
+  <si>
+    <t>[   0.02,     0.64]</t>
+  </si>
+  <si>
+    <t>0.993</t>
+  </si>
+  <si>
+    <t>[0.01,   0.65]</t>
+  </si>
+  <si>
+    <t>0.990</t>
+  </si>
+  <si>
+    <t>Mean weartime</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>0.912</t>
+  </si>
+  <si>
+    <t>Hurdle Within-Person Effects</t>
+  </si>
+  <si>
+    <t>Hu Daily persuasion experienced</t>
+  </si>
+  <si>
+    <t>1.53***</t>
+  </si>
+  <si>
+    <t>[ 1.36,  1.75]</t>
+  </si>
+  <si>
+    <t>Hu Daily persuasion utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>1.32***</t>
+  </si>
+  <si>
+    <t>[ 1.19,  1.50]</t>
+  </si>
+  <si>
+    <t>Hu Daily pressure experienced</t>
+  </si>
+  <si>
+    <t>[ 0.58,  1.13]</t>
+  </si>
+  <si>
+    <t>0.897</t>
+  </si>
+  <si>
+    <t>Hu Daily pressure utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>1.47*</t>
+  </si>
+  <si>
+    <t>[ 1.05,  2.32]</t>
+  </si>
+  <si>
+    <t>Hu Daily pushing experienced</t>
+  </si>
+  <si>
+    <t>1.71***</t>
+  </si>
+  <si>
+    <t>[ 1.27,  2.46]</t>
+  </si>
+  <si>
+    <t>Hu Daily pushing utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>1.83***</t>
+  </si>
+  <si>
+    <t>[ 1.46,  2.44]</t>
+  </si>
+  <si>
+    <t>Hu Day</t>
+  </si>
+  <si>
+    <t>[ 0.71,  1.19]</t>
+  </si>
+  <si>
+    <t>0.743</t>
+  </si>
+  <si>
+    <t>Hu Daily weartime</t>
+  </si>
+  <si>
+    <t>Hurdle Between-Person Effects</t>
+  </si>
+  <si>
+    <t>Hu Mean persuasion experienced</t>
+  </si>
+  <si>
+    <t>1.19</t>
+  </si>
+  <si>
+    <t>[ 0.54,  2.60]</t>
+  </si>
+  <si>
+    <t>0.673</t>
+  </si>
+  <si>
+    <t>Hu Mean persuasion utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>[ 0.53,  2.56]</t>
+  </si>
+  <si>
+    <t>0.667</t>
+  </si>
+  <si>
+    <t>Hu Mean pressure experienced</t>
+  </si>
+  <si>
+    <t>0.31**</t>
+  </si>
+  <si>
+    <t>[ 0.13,  0.74]</t>
+  </si>
+  <si>
+    <t>0.996</t>
+  </si>
+  <si>
+    <t>Hu Mean pressure utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>[ 0.24,  1.36]</t>
+  </si>
+  <si>
+    <t>Hu Mean pushing experienced</t>
+  </si>
+  <si>
+    <t>2.70</t>
+  </si>
+  <si>
+    <t>[ 0.87,  8.16]</t>
+  </si>
+  <si>
+    <t>0.958</t>
+  </si>
+  <si>
+    <t>Hu Mean pushing utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>2.79</t>
+  </si>
+  <si>
+    <t>[ 0.89,  8.46]</t>
+  </si>
+  <si>
+    <t>0.962</t>
+  </si>
+  <si>
+    <t>Hu Mean weartime</t>
+  </si>
+  <si>
+    <t>Random Effects</t>
+  </si>
+  <si>
+    <t>sd(Intercept)</t>
+  </si>
+  <si>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>[0.24, 0.42]</t>
+  </si>
+  <si>
+    <t>0.30</t>
+  </si>
+  <si>
+    <t>[0.24, 0.40]</t>
+  </si>
+  <si>
+    <t>0.60</t>
+  </si>
+  <si>
+    <t>[0.48, 0.78]</t>
+  </si>
+  <si>
+    <t>0.81</t>
+  </si>
+  <si>
+    <t>[0.48, 1.26]</t>
+  </si>
+  <si>
+    <t>1.15</t>
+  </si>
+  <si>
+    <t>[0.74, 1.74]</t>
+  </si>
+  <si>
+    <t>sd(Hurdle Intercept)</t>
+  </si>
+  <si>
+    <t>[0.69, 1.18]</t>
+  </si>
+  <si>
+    <t>sd(Daily persuasion experienced)</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>[0.08, 0.17]</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>[0.02, 0.08]</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>[0.00, 0.10]</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>[0.01, 0.42]</t>
+  </si>
+  <si>
+    <t>0.20</t>
+  </si>
+  <si>
+    <t>[0.01, 0.51]</t>
+  </si>
+  <si>
+    <t>sd(Daily persuasion utilized (partner's view))</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>[0.05, 0.13]</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>[0.03, 0.09]</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>[0.02, 0.13]</t>
+  </si>
+  <si>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>0.48</t>
+  </si>
+  <si>
+    <t>[0.12, 0.97]</t>
+  </si>
+  <si>
+    <t>sd(Daily pressure experienced)</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>[0.00, 0.24]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.13]</t>
+  </si>
+  <si>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>[0.10, 1.14]</t>
+  </si>
+  <si>
+    <t>1.06</t>
+  </si>
+  <si>
+    <t>[0.14, 2.41]</t>
+  </si>
+  <si>
+    <t>sd(Daily pressure utilized (partner's view))</t>
+  </si>
+  <si>
+    <t>[0.00, 0.18]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.11]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.26]</t>
+  </si>
+  <si>
+    <t>0.40</t>
+  </si>
+  <si>
+    <t>[0.02, 1.55]</t>
+  </si>
+  <si>
+    <t>[0.04, 2.73]</t>
+  </si>
+  <si>
+    <t>sd(Daily pushing experienced)</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>[0.04, 0.19]</t>
+  </si>
+  <si>
+    <t>[0.01, 0.15]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.14]</t>
+  </si>
+  <si>
+    <t>[0.01, 0.59]</t>
+  </si>
+  <si>
+    <t>sd(Daily pushing utilized (partner's view))</t>
+  </si>
+  <si>
+    <t>[0.02, 0.17]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.17]</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>[0.01, 0.93]</t>
+  </si>
+  <si>
+    <t>sd(Hu Daily persuasion experienced)</t>
+  </si>
+  <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>[0.02, 0.34]</t>
+  </si>
+  <si>
+    <t>sd(Hu Daily persuasion utilized (partner's view))</t>
+  </si>
+  <si>
+    <t>0.17</t>
+  </si>
+  <si>
+    <t>[0.02, 0.33]</t>
+  </si>
+  <si>
+    <t>sd(Hu Daily pressure experienced)</t>
+  </si>
+  <si>
+    <t>[0.01, 0.85]</t>
+  </si>
+  <si>
+    <t>sd(Hu Daily pressure utilized (partner's view))</t>
+  </si>
+  <si>
+    <t>0.28</t>
+  </si>
+  <si>
+    <t>[0.01, 1.00]</t>
+  </si>
+  <si>
+    <t>sd(Hu Daily pushing experienced)</t>
+  </si>
+  <si>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>[0.32, 1.08]</t>
+  </si>
+  <si>
+    <t>sd(Hu Daily pushing utilized (partner's view))</t>
+  </si>
+  <si>
+    <t>0.31</t>
+  </si>
+  <si>
+    <t>[0.04, 0.64]</t>
+  </si>
+  <si>
+    <t>Additional Parameters</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>[0.66, 0.71]</t>
+  </si>
+  <si>
+    <t>[0.56, 0.59]</t>
+  </si>
+  <si>
+    <t>[0.94, 0.98]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1083,16 +1090,16 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <b/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <i/>
     </font>
   </fonts>
   <fills count="2">
@@ -1112,20 +1119,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1141,20 +1156,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1436,64 +1466,83 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P68"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="43.36328125" customWidth="1"/>
+    <col min="2" max="2" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.40625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.31640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.40625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.40625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.40625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.40625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1543,7 +1592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -1587,7 +1636,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1613,58 +1662,58 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="P5" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A6" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1713,8 +1762,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A7" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1763,8 +1812,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A8" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1813,8 +1862,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A9" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1863,8 +1912,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A10" s="7" t="s">
         <v>85</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1913,8 +1962,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A11" s="7" t="s">
         <v>96</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1963,8 +2012,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A12" s="7" t="s">
         <v>111</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -2013,8 +2062,8 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A13" s="7" t="s">
         <v>126</v>
       </c>
       <c r="B13" s="1"/>
@@ -2039,58 +2088,58 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A14" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="L14" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="M14" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="N14" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="O14" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="P14" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A15" s="7" t="s">
         <v>130</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -2139,8 +2188,8 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A16" s="7" t="s">
         <v>144</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2189,8 +2238,8 @@
         <v>157</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A17" s="7" t="s">
         <v>158</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -2239,8 +2288,8 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A18" s="7" t="s">
         <v>172</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -2289,8 +2338,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A19" s="7" t="s">
         <v>186</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -2339,8 +2388,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A20" s="7" t="s">
         <v>201</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2389,8 +2438,8 @@
         <v>214</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A21" s="7" t="s">
         <v>215</v>
       </c>
       <c r="B21" s="1"/>
@@ -2415,58 +2464,58 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A22" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J22" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="K22" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="L22" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="M22" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="N22" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="O22" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="P22" s="1" t="s">
+      <c r="P22" s="10" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A23" s="7" t="s">
         <v>219</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -2491,8 +2540,8 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A24" s="7" t="s">
         <v>222</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -2517,8 +2566,8 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A25" s="7" t="s">
         <v>225</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -2543,8 +2592,8 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A26" s="7" t="s">
         <v>228</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -2569,8 +2618,8 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A27" s="7" t="s">
         <v>231</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -2595,8 +2644,8 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A28" s="7" t="s">
         <v>234</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -2621,8 +2670,8 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A29" s="7" t="s">
         <v>237</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -2647,8 +2696,8 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30">
-      <c r="A30" s="8" t="s">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A30" s="7" t="s">
         <v>240</v>
       </c>
       <c r="B30" s="1"/>
@@ -2667,58 +2716,58 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31">
-      <c r="A31" s="7" t="s">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A31" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H31" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I31" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="J31" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="K31" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="L31" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="M31" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="N31" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="O31" s="1" t="s">
+      <c r="O31" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="P31" s="1" t="s">
+      <c r="P31" s="10" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="8" t="s">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A32" s="7" t="s">
         <v>242</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -2743,8 +2792,8 @@
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
     </row>
-    <row r="33">
-      <c r="A33" s="8" t="s">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A33" s="7" t="s">
         <v>246</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -2769,8 +2818,8 @@
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
     </row>
-    <row r="34">
-      <c r="A34" s="8" t="s">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A34" s="7" t="s">
         <v>249</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -2795,8 +2844,8 @@
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
     </row>
-    <row r="35">
-      <c r="A35" s="8" t="s">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A35" s="7" t="s">
         <v>253</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -2821,8 +2870,8 @@
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
     </row>
-    <row r="36">
-      <c r="A36" s="8" t="s">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A36" s="7" t="s">
         <v>256</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -2847,8 +2896,8 @@
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
     </row>
-    <row r="37">
-      <c r="A37" s="8" t="s">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A37" s="7" t="s">
         <v>260</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -2873,8 +2922,8 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
     </row>
-    <row r="38">
-      <c r="A38" s="8" t="s">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A38" s="7" t="s">
         <v>264</v>
       </c>
       <c r="B38" s="1"/>
@@ -2893,58 +2942,58 @@
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39">
-      <c r="A39" s="7" t="s">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A39" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H39" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="I39" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="J39" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="K39" s="1" t="s">
+      <c r="K39" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="L39" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="M39" s="1" t="s">
+      <c r="M39" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="N39" s="1" t="s">
+      <c r="N39" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="O39" s="1" t="s">
+      <c r="O39" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="P39" s="1" t="s">
+      <c r="P39" s="10" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="8" t="s">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A40" s="7" t="s">
         <v>266</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -2983,8 +3032,8 @@
       </c>
       <c r="P40" s="1"/>
     </row>
-    <row r="41">
-      <c r="A41" s="8" t="s">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A41" s="7" t="s">
         <v>277</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -3007,8 +3056,8 @@
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
     </row>
-    <row r="42">
-      <c r="A42" s="8" t="s">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A42" s="7" t="s">
         <v>279</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -3047,8 +3096,8 @@
       </c>
       <c r="P42" s="1"/>
     </row>
-    <row r="43">
-      <c r="A43" s="8" t="s">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A43" s="7" t="s">
         <v>290</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -3087,8 +3136,8 @@
       </c>
       <c r="P43" s="1"/>
     </row>
-    <row r="44">
-      <c r="A44" s="8" t="s">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A44" s="7" t="s">
         <v>300</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -3127,8 +3176,8 @@
       </c>
       <c r="P44" s="1"/>
     </row>
-    <row r="45">
-      <c r="A45" s="8" t="s">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A45" s="7" t="s">
         <v>308</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -3167,8 +3216,8 @@
       </c>
       <c r="P45" s="1"/>
     </row>
-    <row r="46">
-      <c r="A46" s="8" t="s">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A46" s="7" t="s">
         <v>315</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -3207,8 +3256,8 @@
       </c>
       <c r="P46" s="1"/>
     </row>
-    <row r="47">
-      <c r="A47" s="8" t="s">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A47" s="7" t="s">
         <v>321</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -3247,8 +3296,8 @@
       </c>
       <c r="P47" s="1"/>
     </row>
-    <row r="48">
-      <c r="A48" s="8" t="s">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A48" s="7" t="s">
         <v>327</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -3271,8 +3320,8 @@
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
     </row>
-    <row r="49">
-      <c r="A49" s="8" t="s">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A49" s="7" t="s">
         <v>330</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -3295,8 +3344,8 @@
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
     </row>
-    <row r="50">
-      <c r="A50" s="8" t="s">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A50" s="7" t="s">
         <v>333</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -3319,8 +3368,8 @@
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
     </row>
-    <row r="51">
-      <c r="A51" s="8" t="s">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A51" s="7" t="s">
         <v>335</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -3343,8 +3392,8 @@
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
     </row>
-    <row r="52">
-      <c r="A52" s="8" t="s">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A52" s="7" t="s">
         <v>338</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -3367,8 +3416,8 @@
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
     </row>
-    <row r="53">
-      <c r="A53" s="8" t="s">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A53" s="7" t="s">
         <v>341</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -3391,58 +3440,58 @@
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
     </row>
-    <row r="54">
-      <c r="A54" s="7" t="s">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A54" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F54" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="G54" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="H54" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="I54" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="J54" s="1" t="s">
+      <c r="J54" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="K54" s="1" t="s">
+      <c r="K54" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="L54" s="1" t="s">
+      <c r="L54" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="M54" s="1" t="s">
+      <c r="M54" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="N54" s="1" t="s">
+      <c r="N54" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="O54" s="1" t="s">
+      <c r="O54" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="P54" s="1" t="s">
+      <c r="P54" s="10" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="9" t="s">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A55" s="8" t="s">
         <v>345</v>
       </c>
       <c r="B55" s="4" t="s">
@@ -3473,44 +3522,44 @@
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
     </row>
-    <row r="56">
-      <c r="A56" s="8"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="8"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="8"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="8"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="8"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="8"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="8"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="8"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="8"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="8"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="8"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="8"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="8"/>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A56" s="7"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A57" s="7"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A58" s="7"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A59" s="7"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A60" s="7"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A61" s="7"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A62" s="7"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A63" s="7"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A64" s="7"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A65" s="7"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A66" s="7"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A67" s="7"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A68" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3519,14 +3568,14 @@
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:P1"/>
+    <mergeCell ref="A54:P54"/>
     <mergeCell ref="A5:P5"/>
     <mergeCell ref="A14:P14"/>
     <mergeCell ref="A22:P22"/>
     <mergeCell ref="A31:P31"/>
     <mergeCell ref="A39:P39"/>
-    <mergeCell ref="A54:P54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Output/AllModelsFinal.xlsx
+++ b/Output/AllModelsFinal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kueng\DataAnalysis\02TimeAndTiesControl_updatedBRMS\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407F1D24-209A-407C-A0B7-FD9CA6C33F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7153DB91-8396-49F3-893B-78B14AE11F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19303" yWindow="3369" windowWidth="19406" windowHeight="11485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1470,26 +1470,27 @@
   <dimension ref="A1:P68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="43.36328125" customWidth="1"/>
-    <col min="2" max="2" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.40625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.31640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.40625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.40625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.40625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.40625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.2265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.2265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.2265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.2265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.2265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.75">

--- a/Output/AllModelsFinal.xlsx
+++ b/Output/AllModelsFinal.xlsx
@@ -1,1075 +1,1082 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kueng\DataAnalysis\02TimeAndTiesControl_updatedBRMS\Output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3146232E-0AB2-4A40-90DB-7E4A0CB8E7B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="350">
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Subjective MVPA Hurdle Lognormal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Device-Based MVPA Log (Gaussian)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mood Gaussian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reactance Ordinal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reactance Dichotome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp(Est.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95% CI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Est.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intercept</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.95***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[42.23, 54.34]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117.27***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[105.41, 130.66]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 3.50, 3.91]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.29***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.16,   0.50]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hurdle Intercept</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.61,  1.18]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conditional Within-Person Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily persuasion experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.97,  1.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  1.00,   1.06]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.04, 0.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.85*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.71,     0.99]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.980</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.69,   1.01]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily persuasion utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.98,  1.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.99,   1.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.02, 0.07]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.84,     1.24]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.85,   1.53]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily pressure experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.89*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.80,  0.98]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.88,   1.01]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.15, 0.07]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   1.18,     2.69]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.03,   4.47]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily pressure utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.86,  1.03]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.92,   1.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.14, 0.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.70,     2.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.59,   4.18]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily pushing experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.96,  1.10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.98,   1.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.04, 0.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.96,     1.42]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.01,   1.63]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily pushing utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.93,  1.05]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.97,   1.06]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.08*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.01, 0.14]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.71,     1.17]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.60,   1.31]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.89,  1.14]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.91,   1.04]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.26***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.15, 0.37]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.77,     2.86]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.76,   3.51]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily weartime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  1.00,   1.00]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conditional Between-Person Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean persuasion experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.74,  1.39]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.83,   1.47]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.20, 0.89]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.41,     3.14]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.60,   6.84]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean persuasion utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.72,  1.35]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.73,   1.31]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.550</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.31, 0.78]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.45,     4.35]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.52,   7.23]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean pressure experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.80,  1.64]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.86, 0.23]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   1.18,    10.66]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.42**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[2.39, 155.22]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean pressure utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.61,  1.29]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.72,   1.28]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.37,     3.58]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.25,  19.47]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean pushing experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.84,  2.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.64,   1.47]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.55, 1.01]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.28,     5.59]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.12,   6.10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.580</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean pushing utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.88,  2.24]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[  0.83,   1.88]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-0.41, 1.14]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[   0.02,     0.64]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01,   0.65]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean weartime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hurdle Within-Person Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily persuasion experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.36,  1.75]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily persuasion utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.19,  1.50]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily pressure experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.58,  1.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily pressure utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.05,  2.32]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily pushing experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.27,  2.46]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily pushing utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 1.46,  2.44]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.71,  1.19]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Daily weartime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hurdle Between-Person Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean persuasion experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.54,  2.60]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean persuasion utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.53,  2.56]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean pressure experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.31**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.13,  0.74]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean pressure utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.24,  1.36]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean pushing experienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.87,  8.16]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean pushing utilized (partner's view)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ 0.89,  8.46]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hu Mean weartime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Random Effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Intercept)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.24, 0.42]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.24, 0.40]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.48, 0.78]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.48, 1.26]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.74, 1.74]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Hurdle Intercept)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.69, 1.18]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily persuasion experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.08, 0.17]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.42]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.51]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily persuasion utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.05, 0.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.03, 0.09]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.12, 0.97]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily pressure experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.24]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.13]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.10, 1.14]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.14, 2.41]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily pressure utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.18]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.11]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.26]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 1.55]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.04, 2.73]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily pushing experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.04, 0.19]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.14]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.59]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Daily pushing utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.17]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00, 0.17]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.93]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Hu Daily persuasion experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.34]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Hu Daily persuasion utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.02, 0.33]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Hu Daily pressure experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 0.85]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Hu Daily pressure utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.01, 1.00]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Hu Daily pushing experienced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.32, 1.08]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd(Hu Daily pushing utilized (partner's view))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.04, 0.64]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Additional Parameters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sigma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.66, 0.71]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.56, 0.59]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.94, 0.98]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="350">
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Subjective MVPA Hurdle Lognormal</t>
+  </si>
+  <si>
+    <t>Device-Based MVPA Log (Gaussian)</t>
+  </si>
+  <si>
+    <t>Mood Gaussian</t>
+  </si>
+  <si>
+    <t>Reactance Ordinal</t>
+  </si>
+  <si>
+    <t>Reactance Dichotome</t>
+  </si>
+  <si>
+    <t>exp(Est.)</t>
+  </si>
+  <si>
+    <t>95% CI</t>
+  </si>
+  <si>
+    <t>pd</t>
+  </si>
+  <si>
+    <t>Est.</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>47.95***</t>
+  </si>
+  <si>
+    <t>[42.23, 54.34]</t>
+  </si>
+  <si>
+    <t>1.000</t>
+  </si>
+  <si>
+    <t>117.27***</t>
+  </si>
+  <si>
+    <t>[105.41, 130.66]</t>
+  </si>
+  <si>
+    <t>3.70***</t>
+  </si>
+  <si>
+    <t>[ 3.50, 3.91]</t>
+  </si>
+  <si>
+    <t>0.29***</t>
+  </si>
+  <si>
+    <t>[0.16,   0.50]</t>
+  </si>
+  <si>
+    <t>Hurdle Intercept</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>[ 0.61,  1.18]</t>
+  </si>
+  <si>
+    <t>0.838</t>
+  </si>
+  <si>
+    <t>Conditional Within-Person Effects</t>
+  </si>
+  <si>
+    <t>Daily persuasion experienced</t>
+  </si>
+  <si>
+    <t>1.03</t>
+  </si>
+  <si>
+    <t>[ 0.97,  1.08]</t>
+  </si>
+  <si>
+    <t>0.832</t>
+  </si>
+  <si>
+    <t>[  1.00,   1.06]</t>
+  </si>
+  <si>
+    <t>0.965</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>[-0.04, 0.05]</t>
+  </si>
+  <si>
+    <t>0.545</t>
+  </si>
+  <si>
+    <t>0.85*</t>
+  </si>
+  <si>
+    <t>[   0.71,     0.99]</t>
+  </si>
+  <si>
+    <t>0.980</t>
+  </si>
+  <si>
+    <t>0.84</t>
+  </si>
+  <si>
+    <t>[0.69,   1.01]</t>
+  </si>
+  <si>
+    <t>Daily persuasion utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>[ 0.98,  1.08]</t>
+  </si>
+  <si>
+    <t>0.902</t>
+  </si>
+  <si>
+    <t>1.02</t>
+  </si>
+  <si>
+    <t>[  0.99,   1.05]</t>
+  </si>
+  <si>
+    <t>0.888</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>[-0.02, 0.07]</t>
+  </si>
+  <si>
+    <t>0.828</t>
+  </si>
+  <si>
+    <t>[   0.84,     1.24]</t>
+  </si>
+  <si>
+    <t>0.604</t>
+  </si>
+  <si>
+    <t>1.12</t>
+  </si>
+  <si>
+    <t>[0.85,   1.53]</t>
+  </si>
+  <si>
+    <t>0.786</t>
+  </si>
+  <si>
+    <t>Daily pressure experienced</t>
+  </si>
+  <si>
+    <t>0.89*</t>
+  </si>
+  <si>
+    <t>[ 0.80,  0.98]</t>
+  </si>
+  <si>
+    <t>0.987</t>
+  </si>
+  <si>
+    <t>0.94</t>
+  </si>
+  <si>
+    <t>[  0.88,   1.01]</t>
+  </si>
+  <si>
+    <t>0.960</t>
+  </si>
+  <si>
+    <t>-0.04</t>
+  </si>
+  <si>
+    <t>[-0.15, 0.07]</t>
+  </si>
+  <si>
+    <t>0.769</t>
+  </si>
+  <si>
+    <t>1.86*</t>
+  </si>
+  <si>
+    <t>[   1.18,     2.69]</t>
+  </si>
+  <si>
+    <t>0.994</t>
+  </si>
+  <si>
+    <t>1.99*</t>
+  </si>
+  <si>
+    <t>[1.03,   4.47]</t>
+  </si>
+  <si>
+    <t>0.979</t>
+  </si>
+  <si>
+    <t>Daily pressure utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>[ 0.86,  1.03]</t>
+  </si>
+  <si>
+    <t>0.917</t>
+  </si>
+  <si>
+    <t>0.98</t>
+  </si>
+  <si>
+    <t>[  0.92,   1.05]</t>
+  </si>
+  <si>
+    <t>0.717</t>
+  </si>
+  <si>
+    <t>-0.02</t>
+  </si>
+  <si>
+    <t>[-0.14, 0.08]</t>
+  </si>
+  <si>
+    <t>0.668</t>
+  </si>
+  <si>
+    <t>1.23</t>
+  </si>
+  <si>
+    <t>[   0.70,     2.08]</t>
+  </si>
+  <si>
+    <t>0.808</t>
+  </si>
+  <si>
+    <t>1.41</t>
+  </si>
+  <si>
+    <t>[0.59,   4.18]</t>
+  </si>
+  <si>
+    <t>0.802</t>
+  </si>
+  <si>
+    <t>Daily pushing experienced</t>
+  </si>
+  <si>
+    <t>[ 0.96,  1.10]</t>
+  </si>
+  <si>
+    <t>[  0.98,   1.08]</t>
+  </si>
+  <si>
+    <t>0.900</t>
+  </si>
+  <si>
+    <t>[-0.04, 0.08]</t>
+  </si>
+  <si>
+    <t>0.758</t>
+  </si>
+  <si>
+    <t>1.16</t>
+  </si>
+  <si>
+    <t>[   0.96,     1.42]</t>
+  </si>
+  <si>
+    <t>0.945</t>
+  </si>
+  <si>
+    <t>1.27*</t>
+  </si>
+  <si>
+    <t>[1.01,   1.63]</t>
+  </si>
+  <si>
+    <t>Daily pushing utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>0.99</t>
+  </si>
+  <si>
+    <t>[ 0.93,  1.05]</t>
+  </si>
+  <si>
+    <t>0.637</t>
+  </si>
+  <si>
+    <t>[  0.97,   1.06]</t>
+  </si>
+  <si>
+    <t>0.774</t>
+  </si>
+  <si>
+    <t>0.08*</t>
+  </si>
+  <si>
+    <t>[ 0.01, 0.14]</t>
+  </si>
+  <si>
+    <t>0.985</t>
+  </si>
+  <si>
+    <t>0.92</t>
+  </si>
+  <si>
+    <t>[   0.71,     1.17]</t>
+  </si>
+  <si>
+    <t>0.768</t>
+  </si>
+  <si>
+    <t>0.89</t>
+  </si>
+  <si>
+    <t>[0.60,   1.31]</t>
+  </si>
+  <si>
+    <t>0.735</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>1.01</t>
+  </si>
+  <si>
+    <t>[ 0.89,  1.14]</t>
+  </si>
+  <si>
+    <t>0.549</t>
+  </si>
+  <si>
+    <t>0.97</t>
+  </si>
+  <si>
+    <t>[  0.91,   1.04]</t>
+  </si>
+  <si>
+    <t>0.784</t>
+  </si>
+  <si>
+    <t>0.26***</t>
+  </si>
+  <si>
+    <t>[ 0.15, 0.37]</t>
+  </si>
+  <si>
+    <t>1.47</t>
+  </si>
+  <si>
+    <t>[   0.77,     2.86]</t>
+  </si>
+  <si>
+    <t>0.872</t>
+  </si>
+  <si>
+    <t>1.64</t>
+  </si>
+  <si>
+    <t>[0.76,   3.51]</t>
+  </si>
+  <si>
+    <t>0.898</t>
+  </si>
+  <si>
+    <t>Daily weartime</t>
+  </si>
+  <si>
+    <t>1.00***</t>
+  </si>
+  <si>
+    <t>[  1.00,   1.00]</t>
+  </si>
+  <si>
+    <t>Conditional Between-Person Effects</t>
+  </si>
+  <si>
+    <t>Mean persuasion experienced</t>
+  </si>
+  <si>
+    <t>[ 0.74,  1.39]</t>
+  </si>
+  <si>
+    <t>0.534</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>[  0.83,   1.47]</t>
+  </si>
+  <si>
+    <t>0.756</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>[-0.20, 0.89]</t>
+  </si>
+  <si>
+    <t>0.893</t>
+  </si>
+  <si>
+    <t>[   0.41,     3.14]</t>
+  </si>
+  <si>
+    <t>0.591</t>
+  </si>
+  <si>
+    <t>1.99</t>
+  </si>
+  <si>
+    <t>[0.60,   6.84]</t>
+  </si>
+  <si>
+    <t>0.873</t>
+  </si>
+  <si>
+    <t>Mean persuasion utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>[ 0.72,  1.35]</t>
+  </si>
+  <si>
+    <t>0.539</t>
+  </si>
+  <si>
+    <t>[  0.73,   1.31]</t>
+  </si>
+  <si>
+    <t>0.550</t>
+  </si>
+  <si>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>[-0.31, 0.78]</t>
+  </si>
+  <si>
+    <t>0.799</t>
+  </si>
+  <si>
+    <t>1.38</t>
+  </si>
+  <si>
+    <t>[   0.45,     4.35]</t>
+  </si>
+  <si>
+    <t>0.713</t>
+  </si>
+  <si>
+    <t>1.88</t>
+  </si>
+  <si>
+    <t>[0.52,   7.23]</t>
+  </si>
+  <si>
+    <t>0.829</t>
+  </si>
+  <si>
+    <t>Mean pressure experienced</t>
+  </si>
+  <si>
+    <t>1.14</t>
+  </si>
+  <si>
+    <t>[ 0.80,  1.64]</t>
+  </si>
+  <si>
+    <t>0.765</t>
+  </si>
+  <si>
+    <t>0.564</t>
+  </si>
+  <si>
+    <t>-0.32</t>
+  </si>
+  <si>
+    <t>[-0.86, 0.23]</t>
+  </si>
+  <si>
+    <t>0.876</t>
+  </si>
+  <si>
+    <t>3.48*</t>
+  </si>
+  <si>
+    <t>[   1.18,    10.66]</t>
+  </si>
+  <si>
+    <t>0.988</t>
+  </si>
+  <si>
+    <t>17.42**</t>
+  </si>
+  <si>
+    <t>[2.39, 155.22]</t>
+  </si>
+  <si>
+    <t>0.998</t>
+  </si>
+  <si>
+    <t>Mean pressure utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>0.88</t>
+  </si>
+  <si>
+    <t>[ 0.61,  1.29]</t>
+  </si>
+  <si>
+    <t>0.745</t>
+  </si>
+  <si>
+    <t>0.96</t>
+  </si>
+  <si>
+    <t>[  0.72,   1.28]</t>
+  </si>
+  <si>
+    <t>0.602</t>
+  </si>
+  <si>
+    <t>0.877</t>
+  </si>
+  <si>
+    <t>1.18</t>
+  </si>
+  <si>
+    <t>[   0.37,     3.58]</t>
+  </si>
+  <si>
+    <t>0.612</t>
+  </si>
+  <si>
+    <t>2.32</t>
+  </si>
+  <si>
+    <t>[0.25,  19.47]</t>
+  </si>
+  <si>
+    <t>0.772</t>
+  </si>
+  <si>
+    <t>Mean pushing experienced</t>
+  </si>
+  <si>
+    <t>1.33</t>
+  </si>
+  <si>
+    <t>[ 0.84,  2.09]</t>
+  </si>
+  <si>
+    <t>0.886</t>
+  </si>
+  <si>
+    <t>[  0.64,   1.47]</t>
+  </si>
+  <si>
+    <t>0.561</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>[-0.55, 1.01]</t>
+  </si>
+  <si>
+    <t>0.714</t>
+  </si>
+  <si>
+    <t>1.20</t>
+  </si>
+  <si>
+    <t>[   0.28,     5.59]</t>
+  </si>
+  <si>
+    <t>0.599</t>
+  </si>
+  <si>
+    <t>0.82</t>
+  </si>
+  <si>
+    <t>[0.12,   6.10]</t>
+  </si>
+  <si>
+    <t>0.580</t>
+  </si>
+  <si>
+    <t>Mean pushing utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>1.40</t>
+  </si>
+  <si>
+    <t>[ 0.88,  2.24]</t>
+  </si>
+  <si>
+    <t>0.923</t>
+  </si>
+  <si>
+    <t>1.24</t>
+  </si>
+  <si>
+    <t>[  0.83,   1.88]</t>
+  </si>
+  <si>
+    <t>0.859</t>
+  </si>
+  <si>
+    <t>[-0.41, 1.14]</t>
+  </si>
+  <si>
+    <t>0.823</t>
+  </si>
+  <si>
+    <t>0.11*</t>
+  </si>
+  <si>
+    <t>[   0.02,     0.64]</t>
+  </si>
+  <si>
+    <t>0.993</t>
+  </si>
+  <si>
+    <t>[0.01,   0.65]</t>
+  </si>
+  <si>
+    <t>0.990</t>
+  </si>
+  <si>
+    <t>Mean weartime</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>0.912</t>
+  </si>
+  <si>
+    <t>Hurdle Within-Person Effects</t>
+  </si>
+  <si>
+    <t>Hu Daily persuasion experienced</t>
+  </si>
+  <si>
+    <t>1.53***</t>
+  </si>
+  <si>
+    <t>[ 1.36,  1.75]</t>
+  </si>
+  <si>
+    <t>Hu Daily persuasion utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>1.32***</t>
+  </si>
+  <si>
+    <t>[ 1.19,  1.50]</t>
+  </si>
+  <si>
+    <t>Hu Daily pressure experienced</t>
+  </si>
+  <si>
+    <t>[ 0.58,  1.13]</t>
+  </si>
+  <si>
+    <t>0.897</t>
+  </si>
+  <si>
+    <t>Hu Daily pressure utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>1.47*</t>
+  </si>
+  <si>
+    <t>[ 1.05,  2.32]</t>
+  </si>
+  <si>
+    <t>Hu Daily pushing experienced</t>
+  </si>
+  <si>
+    <t>1.71***</t>
+  </si>
+  <si>
+    <t>[ 1.27,  2.46]</t>
+  </si>
+  <si>
+    <t>Hu Daily pushing utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>1.83***</t>
+  </si>
+  <si>
+    <t>[ 1.46,  2.44]</t>
+  </si>
+  <si>
+    <t>Hu Day</t>
+  </si>
+  <si>
+    <t>[ 0.71,  1.19]</t>
+  </si>
+  <si>
+    <t>0.743</t>
+  </si>
+  <si>
+    <t>Hu Daily weartime</t>
+  </si>
+  <si>
+    <t>Hurdle Between-Person Effects</t>
+  </si>
+  <si>
+    <t>Hu Mean persuasion experienced</t>
+  </si>
+  <si>
+    <t>1.19</t>
+  </si>
+  <si>
+    <t>[ 0.54,  2.60]</t>
+  </si>
+  <si>
+    <t>0.673</t>
+  </si>
+  <si>
+    <t>Hu Mean persuasion utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>[ 0.53,  2.56]</t>
+  </si>
+  <si>
+    <t>0.667</t>
+  </si>
+  <si>
+    <t>Hu Mean pressure experienced</t>
+  </si>
+  <si>
+    <t>0.31**</t>
+  </si>
+  <si>
+    <t>[ 0.13,  0.74]</t>
+  </si>
+  <si>
+    <t>0.996</t>
+  </si>
+  <si>
+    <t>Hu Mean pressure utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>[ 0.24,  1.36]</t>
+  </si>
+  <si>
+    <t>Hu Mean pushing experienced</t>
+  </si>
+  <si>
+    <t>2.70</t>
+  </si>
+  <si>
+    <t>[ 0.87,  8.16]</t>
+  </si>
+  <si>
+    <t>0.958</t>
+  </si>
+  <si>
+    <t>Hu Mean pushing utilized (partner's view)</t>
+  </si>
+  <si>
+    <t>2.79</t>
+  </si>
+  <si>
+    <t>[ 0.89,  8.46]</t>
+  </si>
+  <si>
+    <t>0.962</t>
+  </si>
+  <si>
+    <t>Hu Mean weartime</t>
+  </si>
+  <si>
+    <t>Random Effects</t>
+  </si>
+  <si>
+    <t>sd(Intercept)</t>
+  </si>
+  <si>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>[0.24, 0.42]</t>
+  </si>
+  <si>
+    <t>0.30</t>
+  </si>
+  <si>
+    <t>[0.24, 0.40]</t>
+  </si>
+  <si>
+    <t>0.60</t>
+  </si>
+  <si>
+    <t>[0.48, 0.78]</t>
+  </si>
+  <si>
+    <t>0.81</t>
+  </si>
+  <si>
+    <t>[0.48, 1.26]</t>
+  </si>
+  <si>
+    <t>1.15</t>
+  </si>
+  <si>
+    <t>[0.74, 1.74]</t>
+  </si>
+  <si>
+    <t>sd(Hurdle Intercept)</t>
+  </si>
+  <si>
+    <t>[0.69, 1.18]</t>
+  </si>
+  <si>
+    <t>sd(Daily persuasion experienced)</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>[0.08, 0.17]</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>[0.02, 0.08]</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>[0.00, 0.10]</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>[0.01, 0.42]</t>
+  </si>
+  <si>
+    <t>0.20</t>
+  </si>
+  <si>
+    <t>[0.01, 0.51]</t>
+  </si>
+  <si>
+    <t>sd(Daily persuasion utilized (partner's view))</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>[0.05, 0.13]</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>[0.03, 0.09]</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>[0.02, 0.13]</t>
+  </si>
+  <si>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>0.48</t>
+  </si>
+  <si>
+    <t>[0.12, 0.97]</t>
+  </si>
+  <si>
+    <t>sd(Daily pressure experienced)</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>[0.00, 0.24]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.13]</t>
+  </si>
+  <si>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>[0.10, 1.14]</t>
+  </si>
+  <si>
+    <t>1.06</t>
+  </si>
+  <si>
+    <t>[0.14, 2.41]</t>
+  </si>
+  <si>
+    <t>sd(Daily pressure utilized (partner's view))</t>
+  </si>
+  <si>
+    <t>[0.00, 0.18]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.11]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.26]</t>
+  </si>
+  <si>
+    <t>0.40</t>
+  </si>
+  <si>
+    <t>[0.02, 1.55]</t>
+  </si>
+  <si>
+    <t>[0.04, 2.73]</t>
+  </si>
+  <si>
+    <t>sd(Daily pushing experienced)</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>[0.04, 0.19]</t>
+  </si>
+  <si>
+    <t>[0.01, 0.15]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.14]</t>
+  </si>
+  <si>
+    <t>[0.01, 0.59]</t>
+  </si>
+  <si>
+    <t>sd(Daily pushing utilized (partner's view))</t>
+  </si>
+  <si>
+    <t>[0.02, 0.17]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.17]</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>[0.01, 0.93]</t>
+  </si>
+  <si>
+    <t>sd(Hu Daily persuasion experienced)</t>
+  </si>
+  <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>[0.02, 0.34]</t>
+  </si>
+  <si>
+    <t>sd(Hu Daily persuasion utilized (partner's view))</t>
+  </si>
+  <si>
+    <t>0.17</t>
+  </si>
+  <si>
+    <t>[0.02, 0.33]</t>
+  </si>
+  <si>
+    <t>sd(Hu Daily pressure experienced)</t>
+  </si>
+  <si>
+    <t>[0.01, 0.85]</t>
+  </si>
+  <si>
+    <t>sd(Hu Daily pressure utilized (partner's view))</t>
+  </si>
+  <si>
+    <t>0.28</t>
+  </si>
+  <si>
+    <t>[0.01, 1.00]</t>
+  </si>
+  <si>
+    <t>sd(Hu Daily pushing experienced)</t>
+  </si>
+  <si>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>[0.32, 1.08]</t>
+  </si>
+  <si>
+    <t>sd(Hu Daily pushing utilized (partner's view))</t>
+  </si>
+  <si>
+    <t>0.31</t>
+  </si>
+  <si>
+    <t>[0.04, 0.64]</t>
+  </si>
+  <si>
+    <t>Additional Parameters</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>[0.66, 0.71]</t>
+  </si>
+  <si>
+    <t>[0.56, 0.59]</t>
+  </si>
+  <si>
+    <t>[0.94, 0.98]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1083,16 +1090,16 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <b/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <i/>
     </font>
   </fonts>
   <fills count="2">
@@ -1112,20 +1119,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1141,20 +1156,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1436,64 +1466,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P68"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="40.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.2265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.2265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.2265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.2265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.2265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.1796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1543,7 +1593,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -1587,7 +1637,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1613,58 +1663,58 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="P5" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A6" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1713,8 +1763,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A7" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1763,8 +1813,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A8" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1813,8 +1863,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A9" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1863,8 +1913,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A10" s="7" t="s">
         <v>85</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1913,8 +1963,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A11" s="7" t="s">
         <v>96</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1963,8 +2013,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A12" s="7" t="s">
         <v>111</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -2013,8 +2063,8 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A13" s="7" t="s">
         <v>126</v>
       </c>
       <c r="B13" s="1"/>
@@ -2039,58 +2089,58 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A14" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="L14" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="M14" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="N14" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="O14" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="P14" s="11" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A15" s="7" t="s">
         <v>130</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -2139,8 +2189,8 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A16" s="7" t="s">
         <v>144</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2189,8 +2239,8 @@
         <v>157</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A17" s="7" t="s">
         <v>158</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -2239,8 +2289,8 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A18" s="7" t="s">
         <v>172</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -2289,8 +2339,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A19" s="7" t="s">
         <v>186</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -2339,8 +2389,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A20" s="7" t="s">
         <v>201</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2389,8 +2439,8 @@
         <v>214</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A21" s="7" t="s">
         <v>215</v>
       </c>
       <c r="B21" s="1"/>
@@ -2415,58 +2465,58 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A22" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J22" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="K22" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="L22" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="M22" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="N22" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="O22" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="P22" s="1" t="s">
+      <c r="P22" s="11" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A23" s="7" t="s">
         <v>219</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -2491,8 +2541,8 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A24" s="7" t="s">
         <v>222</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -2517,8 +2567,8 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A25" s="7" t="s">
         <v>225</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -2543,8 +2593,8 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A26" s="7" t="s">
         <v>228</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -2569,8 +2619,8 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A27" s="7" t="s">
         <v>231</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -2595,8 +2645,8 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A28" s="7" t="s">
         <v>234</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -2621,8 +2671,8 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A29" s="7" t="s">
         <v>237</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -2647,8 +2697,8 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30">
-      <c r="A30" s="8" t="s">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A30" s="7" t="s">
         <v>240</v>
       </c>
       <c r="B30" s="1"/>
@@ -2667,58 +2717,58 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31">
-      <c r="A31" s="7" t="s">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A31" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H31" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I31" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="J31" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="K31" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="L31" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="M31" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="N31" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="O31" s="1" t="s">
+      <c r="O31" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="P31" s="1" t="s">
+      <c r="P31" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="8" t="s">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A32" s="7" t="s">
         <v>242</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -2743,8 +2793,8 @@
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
     </row>
-    <row r="33">
-      <c r="A33" s="8" t="s">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A33" s="7" t="s">
         <v>246</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -2769,8 +2819,8 @@
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
     </row>
-    <row r="34">
-      <c r="A34" s="8" t="s">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A34" s="7" t="s">
         <v>249</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -2795,8 +2845,8 @@
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
     </row>
-    <row r="35">
-      <c r="A35" s="8" t="s">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A35" s="7" t="s">
         <v>253</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -2821,8 +2871,8 @@
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
     </row>
-    <row r="36">
-      <c r="A36" s="8" t="s">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A36" s="7" t="s">
         <v>256</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -2847,8 +2897,8 @@
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
     </row>
-    <row r="37">
-      <c r="A37" s="8" t="s">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A37" s="7" t="s">
         <v>260</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -2873,8 +2923,8 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
     </row>
-    <row r="38">
-      <c r="A38" s="8" t="s">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A38" s="7" t="s">
         <v>264</v>
       </c>
       <c r="B38" s="1"/>
@@ -2893,58 +2943,58 @@
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39">
-      <c r="A39" s="7" t="s">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A39" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H39" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="I39" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="J39" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="K39" s="1" t="s">
+      <c r="K39" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="L39" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="M39" s="1" t="s">
+      <c r="M39" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="N39" s="1" t="s">
+      <c r="N39" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="O39" s="1" t="s">
+      <c r="O39" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="P39" s="1" t="s">
+      <c r="P39" s="11" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="8" t="s">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A40" s="7" t="s">
         <v>266</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -2983,8 +3033,8 @@
       </c>
       <c r="P40" s="1"/>
     </row>
-    <row r="41">
-      <c r="A41" s="8" t="s">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A41" s="7" t="s">
         <v>277</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -3007,8 +3057,8 @@
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
     </row>
-    <row r="42">
-      <c r="A42" s="8" t="s">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A42" s="7" t="s">
         <v>279</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -3047,8 +3097,8 @@
       </c>
       <c r="P42" s="1"/>
     </row>
-    <row r="43">
-      <c r="A43" s="8" t="s">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A43" s="7" t="s">
         <v>290</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -3087,8 +3137,8 @@
       </c>
       <c r="P43" s="1"/>
     </row>
-    <row r="44">
-      <c r="A44" s="8" t="s">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A44" s="7" t="s">
         <v>300</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -3127,8 +3177,8 @@
       </c>
       <c r="P44" s="1"/>
     </row>
-    <row r="45">
-      <c r="A45" s="8" t="s">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A45" s="7" t="s">
         <v>308</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -3167,8 +3217,8 @@
       </c>
       <c r="P45" s="1"/>
     </row>
-    <row r="46">
-      <c r="A46" s="8" t="s">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A46" s="7" t="s">
         <v>315</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -3207,8 +3257,8 @@
       </c>
       <c r="P46" s="1"/>
     </row>
-    <row r="47">
-      <c r="A47" s="8" t="s">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A47" s="7" t="s">
         <v>321</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -3247,8 +3297,8 @@
       </c>
       <c r="P47" s="1"/>
     </row>
-    <row r="48">
-      <c r="A48" s="8" t="s">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A48" s="7" t="s">
         <v>327</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -3271,8 +3321,8 @@
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
     </row>
-    <row r="49">
-      <c r="A49" s="8" t="s">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A49" s="7" t="s">
         <v>330</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -3295,8 +3345,8 @@
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
     </row>
-    <row r="50">
-      <c r="A50" s="8" t="s">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A50" s="7" t="s">
         <v>333</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -3319,8 +3369,8 @@
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
     </row>
-    <row r="51">
-      <c r="A51" s="8" t="s">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A51" s="7" t="s">
         <v>335</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -3343,8 +3393,8 @@
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
     </row>
-    <row r="52">
-      <c r="A52" s="8" t="s">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A52" s="7" t="s">
         <v>338</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -3367,8 +3417,8 @@
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
     </row>
-    <row r="53">
-      <c r="A53" s="8" t="s">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A53" s="7" t="s">
         <v>341</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -3391,58 +3441,58 @@
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
     </row>
-    <row r="54">
-      <c r="A54" s="7" t="s">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A54" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F54" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="G54" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="H54" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="I54" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="J54" s="1" t="s">
+      <c r="J54" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="K54" s="1" t="s">
+      <c r="K54" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="L54" s="1" t="s">
+      <c r="L54" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="M54" s="1" t="s">
+      <c r="M54" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="N54" s="1" t="s">
+      <c r="N54" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="O54" s="1" t="s">
+      <c r="O54" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="P54" s="1" t="s">
+      <c r="P54" s="11" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="9" t="s">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A55" s="8" t="s">
         <v>345</v>
       </c>
       <c r="B55" s="4" t="s">
@@ -3473,60 +3523,60 @@
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
     </row>
-    <row r="56">
-      <c r="A56" s="8"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="8"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="8"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="8"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="8"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="8"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="8"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="8"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="8"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="8"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="8"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="8"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="8"/>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A56" s="7"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A57" s="7"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A58" s="7"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A59" s="7"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A60" s="7"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A61" s="7"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A62" s="7"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A63" s="7"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A64" s="7"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A65" s="7"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A66" s="7"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A67" s="7"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A68" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A54:P54"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A14:P14"/>
+    <mergeCell ref="A22:P22"/>
+    <mergeCell ref="A31:P31"/>
+    <mergeCell ref="A39:P39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:P1"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A14:P14"/>
-    <mergeCell ref="A22:P22"/>
-    <mergeCell ref="A31:P31"/>
-    <mergeCell ref="A39:P39"/>
-    <mergeCell ref="A54:P54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>